--- a/data/yukon23eggT.xlsx
+++ b/data/yukon23eggT.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dport\work\yukon_egg_thiamine\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cody.pinger\Work\yukon_egg_thiamine\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9571804B-F2F7-4154-9070-8A3C704B1272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3247C48D-940D-4343-9F48-5E084178E4ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E825F5E1-5EEC-41E9-9FE5-ACAE9BA8BD35}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13890" activeTab="1" xr2:uid="{E825F5E1-5EEC-41E9-9FE5-ACAE9BA8BD35}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2 (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="N2_CO2_EA.wke" localSheetId="0">#REF!</definedName>
     <definedName name="N2_CO2_EA.wke">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="155">
   <si>
     <t>SIN</t>
   </si>
@@ -375,9 +377,6 @@
     <t xml:space="preserve">Salcha_291 </t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>nmol_T_g</t>
   </si>
   <si>
@@ -385,6 +384,117 @@
   </si>
   <si>
     <t>g_egg</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>FOYU23_004</t>
+  </si>
+  <si>
+    <t>FOYU23_007</t>
+  </si>
+  <si>
+    <t>FOYU23_023</t>
+  </si>
+  <si>
+    <t>FOYU23_024</t>
+  </si>
+  <si>
+    <t>FOYU23_031</t>
+  </si>
+  <si>
+    <t>FOYU23_045</t>
+  </si>
+  <si>
+    <t>FOYU23_050</t>
+  </si>
+  <si>
+    <t>FOYU23_058</t>
+  </si>
+  <si>
+    <t>FOYU23_061</t>
+  </si>
+  <si>
+    <t>FOYU23_062</t>
+  </si>
+  <si>
+    <t>RARA23_088</t>
+  </si>
+  <si>
+    <t>RARA23_089</t>
+  </si>
+  <si>
+    <t>RARA23_090</t>
+  </si>
+  <si>
+    <t>RARA23_107</t>
+  </si>
+  <si>
+    <t>RARA23_109</t>
+  </si>
+  <si>
+    <t>RARA23_114</t>
+  </si>
+  <si>
+    <t>RARA23_115</t>
+  </si>
+  <si>
+    <t>RARA23_117</t>
+  </si>
+  <si>
+    <t>RARA23_119</t>
+  </si>
+  <si>
+    <t>RARA23_122</t>
+  </si>
+  <si>
+    <t>RARA23_126</t>
+  </si>
+  <si>
+    <t>RARA23_152</t>
+  </si>
+  <si>
+    <t>moisture</t>
+  </si>
+  <si>
+    <t>PIST 145</t>
+  </si>
+  <si>
+    <t>PIST 031</t>
+  </si>
+  <si>
+    <t>PIST 001</t>
+  </si>
+  <si>
+    <t>CHENA 02</t>
+  </si>
+  <si>
+    <t>CHENA 4</t>
+  </si>
+  <si>
+    <t>Salcha 229</t>
+  </si>
+  <si>
+    <t>lipid</t>
+  </si>
+  <si>
+    <t>PIST23_145</t>
+  </si>
+  <si>
+    <t>PIST23_031</t>
+  </si>
+  <si>
+    <t>PIST23_001</t>
+  </si>
+  <si>
+    <t>Salcha_229</t>
+  </si>
+  <si>
+    <t>Chena_02</t>
+  </si>
+  <si>
+    <t>Chena_4</t>
   </si>
 </sst>
 </file>
@@ -400,12 +510,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -420,8 +536,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,9 +557,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -480,7 +597,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -586,7 +703,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -728,43 +845,2751 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABECA71-E6FA-4B1F-A6A4-770EBADAACBE}">
+  <dimension ref="A1:F142"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:XFD78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2">
+        <v>9.3092340175434316</v>
+      </c>
+      <c r="C2">
+        <v>0.79702799883673792</v>
+      </c>
+      <c r="D2">
+        <v>8.5857142857142854E-2</v>
+      </c>
+      <c r="E2">
+        <v>51.358779252209963</v>
+      </c>
+      <c r="F2">
+        <v>19.557399273813218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>9.4973726320614631</v>
+      </c>
+      <c r="C3">
+        <v>0.89844878578852838</v>
+      </c>
+      <c r="D3">
+        <v>9.4511904761904769E-2</v>
+      </c>
+      <c r="E3">
+        <v>51.576254715902579</v>
+      </c>
+      <c r="F3">
+        <v>20.287515150742628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>12.765988264056361</v>
+      </c>
+      <c r="C4">
+        <v>1.4490583992084223</v>
+      </c>
+      <c r="D4">
+        <v>0.11347142857142856</v>
+      </c>
+      <c r="E4">
+        <v>52.186208854172143</v>
+      </c>
+      <c r="F4">
+        <v>20.71626263654257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <v>9.7971330563832133</v>
+      </c>
+      <c r="C5">
+        <v>1.0675794884355883</v>
+      </c>
+      <c r="D5">
+        <v>0.10970833333333332</v>
+      </c>
+      <c r="E5">
+        <v>52.538215473315539</v>
+      </c>
+      <c r="F5">
+        <v>17.307604853063761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>14.444387235001791</v>
+      </c>
+      <c r="C6">
+        <v>1.4896811768812099</v>
+      </c>
+      <c r="D6">
+        <v>0.10425892857142857</v>
+      </c>
+      <c r="E6">
+        <v>52.574229158736209</v>
+      </c>
+      <c r="F6">
+        <v>23.656031017294069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>9.321378053763933</v>
+      </c>
+      <c r="C7">
+        <v>1.3598548162656745</v>
+      </c>
+      <c r="D7">
+        <v>0.14586666666666667</v>
+      </c>
+      <c r="E7">
+        <v>52.657354442803182</v>
+      </c>
+      <c r="F7">
+        <v>17.08028105850682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>8.0919192415731889</v>
+      </c>
+      <c r="C8">
+        <v>0.90885933936182595</v>
+      </c>
+      <c r="D8">
+        <v>0.11153333333333333</v>
+      </c>
+      <c r="E8">
+        <v>52.711661964029155</v>
+      </c>
+      <c r="F8">
+        <v>18.723892723388769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>9.5656383672625402</v>
+      </c>
+      <c r="C9">
+        <v>1.535367334371188</v>
+      </c>
+      <c r="D9">
+        <v>0.16024285714285713</v>
+      </c>
+      <c r="E9">
+        <v>52.900508691876091</v>
+      </c>
+      <c r="F9">
+        <v>16.978581850872406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>9.4842758685977504</v>
+      </c>
+      <c r="C10">
+        <v>1.1186689152416729</v>
+      </c>
+      <c r="D10">
+        <v>0.11855555555555555</v>
+      </c>
+      <c r="E10">
+        <v>53.151414920984926</v>
+      </c>
+      <c r="F10">
+        <v>22.159247984483237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11">
+        <v>6.9462450257509367</v>
+      </c>
+      <c r="C11">
+        <v>0.89554308213583256</v>
+      </c>
+      <c r="D11">
+        <v>0.12869999999999998</v>
+      </c>
+      <c r="E11">
+        <v>53.21165110653525</v>
+      </c>
+      <c r="F11">
+        <v>19.838459060533825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12">
+        <v>9.6706102828759963</v>
+      </c>
+      <c r="C12">
+        <v>0.53635583540610954</v>
+      </c>
+      <c r="D12">
+        <v>5.7349999999999998E-2</v>
+      </c>
+      <c r="E12">
+        <v>53.250707709874654</v>
+      </c>
+      <c r="F12">
+        <v>20.450816094785473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>6.5579640022700483</v>
+      </c>
+      <c r="C13">
+        <v>0.65653558651537502</v>
+      </c>
+      <c r="D13">
+        <v>0.10085714285714287</v>
+      </c>
+      <c r="E13">
+        <v>53.26957845656105</v>
+      </c>
+      <c r="F13">
+        <v>18.861677191396502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>8.7485461583945998</v>
+      </c>
+      <c r="C14">
+        <v>1.4284146977498788</v>
+      </c>
+      <c r="D14">
+        <v>0.158</v>
+      </c>
+      <c r="E14">
+        <v>53.2727288116943</v>
+      </c>
+      <c r="F14">
+        <v>17.740260968023431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>7.3322136933840598</v>
+      </c>
+      <c r="C15">
+        <v>0.82022765068661274</v>
+      </c>
+      <c r="D15">
+        <v>0.11401249999999999</v>
+      </c>
+      <c r="E15">
+        <v>53.29078143521474</v>
+      </c>
+      <c r="F15">
+        <v>22.526880921427853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>16.960423697318234</v>
+      </c>
+      <c r="C16">
+        <v>1.3438298996606854</v>
+      </c>
+      <c r="D16">
+        <v>7.9049999999999995E-2</v>
+      </c>
+      <c r="E16">
+        <v>53.408460144737788</v>
+      </c>
+      <c r="F16">
+        <v>23.715476405435485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>5.0960716833091571</v>
+      </c>
+      <c r="C17">
+        <v>0.63589605742310473</v>
+      </c>
+      <c r="D17">
+        <v>0.12543333333333334</v>
+      </c>
+      <c r="E17">
+        <v>53.488065781674834</v>
+      </c>
+      <c r="F17">
+        <v>18.926804725260414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18">
+        <v>10.779108427557983</v>
+      </c>
+      <c r="C18">
+        <v>1.0365725359102829</v>
+      </c>
+      <c r="D18">
+        <v>9.6214285714285724E-2</v>
+      </c>
+      <c r="E18">
+        <v>53.54558013897767</v>
+      </c>
+      <c r="F18">
+        <v>22.17266562136485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19">
+        <v>8.9623557906849385</v>
+      </c>
+      <c r="C19">
+        <v>1.3475262577794789</v>
+      </c>
+      <c r="D19">
+        <v>0.15037499999999998</v>
+      </c>
+      <c r="E19">
+        <v>53.69419941192195</v>
+      </c>
+      <c r="F19">
+        <v>16.654111907649092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20">
+        <v>10.370726183158258</v>
+      </c>
+      <c r="C20">
+        <v>1.327864051201926</v>
+      </c>
+      <c r="D20">
+        <v>0.1207142857142857</v>
+      </c>
+      <c r="E20">
+        <v>53.728393575505862</v>
+      </c>
+      <c r="F20">
+        <v>16.40313736720017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5.2513534655235468</v>
+      </c>
+      <c r="C21">
+        <v>0.82526175790682388</v>
+      </c>
+      <c r="D21">
+        <v>0.15716666666666668</v>
+      </c>
+      <c r="E21">
+        <v>53.770320558856163</v>
+      </c>
+      <c r="F21">
+        <v>17.42111091468804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>6.8381544499823068</v>
+      </c>
+      <c r="C22">
+        <v>0.9617505057073531</v>
+      </c>
+      <c r="D22">
+        <v>0.14250000000000002</v>
+      </c>
+      <c r="E22">
+        <v>53.773835989604521</v>
+      </c>
+      <c r="F22">
+        <v>17.096378762886179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>9.2152916221890742</v>
+      </c>
+      <c r="C23">
+        <v>1.1940723255765122</v>
+      </c>
+      <c r="D23">
+        <v>0.12964285714285714</v>
+      </c>
+      <c r="E23">
+        <v>53.787157750282219</v>
+      </c>
+      <c r="F23">
+        <v>17.961797871282421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24">
+        <v>10.483797186162914</v>
+      </c>
+      <c r="C24">
+        <v>0.96231830444781608</v>
+      </c>
+      <c r="D24">
+        <v>9.1783333333333342E-2</v>
+      </c>
+      <c r="E24">
+        <v>53.926050383494982</v>
+      </c>
+      <c r="F24">
+        <v>18.51989176927443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25">
+        <v>4.491275446351402</v>
+      </c>
+      <c r="C25">
+        <v>0.41758567397208068</v>
+      </c>
+      <c r="D25">
+        <v>9.2916666666666675E-2</v>
+      </c>
+      <c r="E25">
+        <v>53.96324077729524</v>
+      </c>
+      <c r="F25">
+        <v>19.724984104703108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26">
+        <v>16.444914268532337</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>54.007226993289223</v>
+      </c>
+      <c r="F26">
+        <v>21.138139712571064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>13.772560240084065</v>
+      </c>
+      <c r="C27">
+        <v>1.0490829650993865</v>
+      </c>
+      <c r="D27">
+        <v>7.6242307692307693E-2</v>
+      </c>
+      <c r="E27">
+        <v>54.155715330422623</v>
+      </c>
+      <c r="F27">
+        <v>21.491308383482284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>4.9594424566705939</v>
+      </c>
+      <c r="C28">
+        <v>0.82740445093502213</v>
+      </c>
+      <c r="D28">
+        <v>0.16728571428571429</v>
+      </c>
+      <c r="E28">
+        <v>54.261674303427974</v>
+      </c>
+      <c r="F28">
+        <v>15.857587584105298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <v>8.6957281227480934</v>
+      </c>
+      <c r="C29">
+        <v>0.80754490449630412</v>
+      </c>
+      <c r="D29">
+        <v>9.2774999999999996E-2</v>
+      </c>
+      <c r="E29">
+        <v>54.262430321580858</v>
+      </c>
+      <c r="F29">
+        <v>16.586150326972795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>8.2427622085796273</v>
+      </c>
+      <c r="C30">
+        <v>0.64637713981615741</v>
+      </c>
+      <c r="D30">
+        <v>7.9250000000000001E-2</v>
+      </c>
+      <c r="E30">
+        <v>54.278605398255173</v>
+      </c>
+      <c r="F30">
+        <v>20.116037451013778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31">
+        <v>5.4073669107597304</v>
+      </c>
+      <c r="C31">
+        <v>0.61977210288376372</v>
+      </c>
+      <c r="D31">
+        <v>0.11474999999999999</v>
+      </c>
+      <c r="E31">
+        <v>54.315509012148524</v>
+      </c>
+      <c r="F31">
+        <v>17.051315271060584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32">
+        <v>8.4734780437459385</v>
+      </c>
+      <c r="C32">
+        <v>1.0192411775778778</v>
+      </c>
+      <c r="D32">
+        <v>0.12775</v>
+      </c>
+      <c r="E32">
+        <v>54.330028781579799</v>
+      </c>
+      <c r="F32">
+        <v>15.740423651832753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>14.011647091105587</v>
+      </c>
+      <c r="C33">
+        <v>1.0719799424334187</v>
+      </c>
+      <c r="D33">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="E33">
+        <v>54.468780260638816</v>
+      </c>
+      <c r="F33">
+        <v>19.354596304868483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34">
+        <v>4.9293591901639573</v>
+      </c>
+      <c r="C34">
+        <v>0.63297550755804743</v>
+      </c>
+      <c r="D34">
+        <v>0.12835555555555556</v>
+      </c>
+      <c r="E34">
+        <v>54.555928297922804</v>
+      </c>
+      <c r="F34">
+        <v>21.980373111096089</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>8.9261451113254395</v>
+      </c>
+      <c r="C35">
+        <v>0.85435168859560706</v>
+      </c>
+      <c r="D35">
+        <v>9.5649999999999985E-2</v>
+      </c>
+      <c r="E35">
+        <v>54.608372173499312</v>
+      </c>
+      <c r="F35">
+        <v>20.109621451307884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>8.8367510210296807</v>
+      </c>
+      <c r="C36">
+        <v>1.0418331447347282</v>
+      </c>
+      <c r="D36">
+        <v>0.12129999999999999</v>
+      </c>
+      <c r="E36">
+        <v>54.631994838116618</v>
+      </c>
+      <c r="F36">
+        <v>17.525989697446523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37">
+        <v>14.930460850124284</v>
+      </c>
+      <c r="C37">
+        <v>1.1195377850098611</v>
+      </c>
+      <c r="D37">
+        <v>7.500833333333333E-2</v>
+      </c>
+      <c r="E37">
+        <v>54.661351720175269</v>
+      </c>
+      <c r="F37">
+        <v>20.078281049717052</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38">
+        <v>18.123977666574213</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>54.76242224775153</v>
+      </c>
+      <c r="F38">
+        <v>15.763705667718064</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39">
+        <v>5.5673033891950361</v>
+      </c>
+      <c r="C39">
+        <v>0.45471723389048824</v>
+      </c>
+      <c r="D39">
+        <v>8.1208333333333327E-2</v>
+      </c>
+      <c r="E39">
+        <v>54.797509600837891</v>
+      </c>
+      <c r="F39">
+        <v>13.727623302291295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>12.199937821088646</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>54.822217824394734</v>
+      </c>
+      <c r="F40">
+        <v>25.146940568980934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41">
+        <v>6.7352258496376072</v>
+      </c>
+      <c r="C41">
+        <v>0.76479388284306182</v>
+      </c>
+      <c r="D41">
+        <v>0.11325</v>
+      </c>
+      <c r="E41">
+        <v>54.845286292654713</v>
+      </c>
+      <c r="F41">
+        <v>15.850413170060831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>19.917836478343201</v>
+      </c>
+      <c r="C42">
+        <v>0.81340340434432035</v>
+      </c>
+      <c r="D42">
+        <v>4.0843749999999998E-2</v>
+      </c>
+      <c r="E42">
+        <v>55.361077882012225</v>
+      </c>
+      <c r="F42">
+        <v>19.045653121309698</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43">
+        <v>9.1326596474305006</v>
+      </c>
+      <c r="C43">
+        <v>1.5351703602810094</v>
+      </c>
+      <c r="D43">
+        <v>0.16893333333333332</v>
+      </c>
+      <c r="E43">
+        <v>55.395873355721434</v>
+      </c>
+      <c r="F43">
+        <v>19.568837866210004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44">
+        <v>8.0242354387808277</v>
+      </c>
+      <c r="C44">
+        <v>0.90923064375480556</v>
+      </c>
+      <c r="D44">
+        <v>0.11278333333333333</v>
+      </c>
+      <c r="E44">
+        <v>55.416106379799793</v>
+      </c>
+      <c r="F44">
+        <v>20.266511321389824</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>15.3190230102221</v>
+      </c>
+      <c r="C45">
+        <v>0.91974776556432847</v>
+      </c>
+      <c r="D45">
+        <v>5.9849206349206346E-2</v>
+      </c>
+      <c r="E45">
+        <v>55.487203135808151</v>
+      </c>
+      <c r="F45">
+        <v>21.184351170105426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>5.7942414868214938</v>
+      </c>
+      <c r="C46">
+        <v>0.84384377790814369</v>
+      </c>
+      <c r="D46">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="E46">
+        <v>55.516444937176644</v>
+      </c>
+      <c r="F46">
+        <v>20.696862444791059</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47">
+        <v>9.1631395719128612</v>
+      </c>
+      <c r="C47">
+        <v>0.42269988687312621</v>
+      </c>
+      <c r="D47">
+        <v>4.5682539682539686E-2</v>
+      </c>
+      <c r="E47">
+        <v>55.569304711178056</v>
+      </c>
+      <c r="F47">
+        <v>23.380748318557337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>8.1139548602214866</v>
+      </c>
+      <c r="C48">
+        <v>0.62651589163369537</v>
+      </c>
+      <c r="D48">
+        <v>7.7709090909090908E-2</v>
+      </c>
+      <c r="E48">
+        <v>55.676095938090455</v>
+      </c>
+      <c r="F48">
+        <v>18.997027645055812</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>9.895914239027622</v>
+      </c>
+      <c r="C49">
+        <v>0.46349044312924659</v>
+      </c>
+      <c r="D49">
+        <v>4.6842222222222216E-2</v>
+      </c>
+      <c r="E49">
+        <v>55.807560744937554</v>
+      </c>
+      <c r="F49">
+        <v>18.554706019380397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>11.250591921135268</v>
+      </c>
+      <c r="C50">
+        <v>0.84609992215044727</v>
+      </c>
+      <c r="D50">
+        <v>7.511515151515151E-2</v>
+      </c>
+      <c r="E50">
+        <v>55.833500449032613</v>
+      </c>
+      <c r="F50">
+        <v>20.114192528644772</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>18.045822106452725</v>
+      </c>
+      <c r="C51">
+        <v>1.0781166854915032</v>
+      </c>
+      <c r="D51">
+        <v>5.9972222222222225E-2</v>
+      </c>
+      <c r="E51">
+        <v>55.945560510761794</v>
+      </c>
+      <c r="F51">
+        <v>15.973378786574086</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>7.4951259264672361</v>
+      </c>
+      <c r="C52">
+        <v>1.1377601156377266</v>
+      </c>
+      <c r="D52">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="E52">
+        <v>56.255728200865363</v>
+      </c>
+      <c r="F52">
+        <v>18.493197682851633</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>15.87122425318989</v>
+      </c>
+      <c r="C53">
+        <v>0.75966448541094966</v>
+      </c>
+      <c r="D53">
+        <v>4.7760416666666666E-2</v>
+      </c>
+      <c r="E53">
+        <v>56.289738996030472</v>
+      </c>
+      <c r="F53">
+        <v>17.514931473201148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>7.9887408522131658</v>
+      </c>
+      <c r="C54">
+        <v>0.46266161936238781</v>
+      </c>
+      <c r="D54">
+        <v>5.8528846153846154E-2</v>
+      </c>
+      <c r="E54">
+        <v>56.300585431395774</v>
+      </c>
+      <c r="F54">
+        <v>19.424389519677433</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55">
+        <v>9.1364195266609656</v>
+      </c>
+      <c r="C55">
+        <v>0.6030057146073744</v>
+      </c>
+      <c r="D55">
+        <v>6.5484162895927595E-2</v>
+      </c>
+      <c r="E55">
+        <v>56.317658926951673</v>
+      </c>
+      <c r="F55">
+        <v>17.496749749893326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56">
+        <v>10.700004736223905</v>
+      </c>
+      <c r="C56">
+        <v>1.6097793819335149</v>
+      </c>
+      <c r="D56">
+        <v>0.14977083333333333</v>
+      </c>
+      <c r="E56">
+        <v>56.344014367792724</v>
+      </c>
+      <c r="F56">
+        <v>18.100498511265787</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57">
+        <v>9.1201577780291814</v>
+      </c>
+      <c r="C57">
+        <v>0.8569171502096109</v>
+      </c>
+      <c r="D57">
+        <v>9.35E-2</v>
+      </c>
+      <c r="E57">
+        <v>56.380596450348776</v>
+      </c>
+      <c r="F57">
+        <v>16.761596593643311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58">
+        <v>12.841797646005693</v>
+      </c>
+      <c r="C58">
+        <v>1.0033986235665242</v>
+      </c>
+      <c r="D58">
+        <v>7.8218939393939382E-2</v>
+      </c>
+      <c r="E58">
+        <v>56.380767167381975</v>
+      </c>
+      <c r="F58">
+        <v>19.922430955596486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59">
+        <v>14.106369397647935</v>
+      </c>
+      <c r="C59">
+        <v>1.5935342177769354</v>
+      </c>
+      <c r="D59">
+        <v>0.11168888888888889</v>
+      </c>
+      <c r="E59">
+        <v>56.400456511930344</v>
+      </c>
+      <c r="F59">
+        <v>20.617306178114667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60">
+        <v>13.181769369076905</v>
+      </c>
+      <c r="C60">
+        <v>1.200442129870932</v>
+      </c>
+      <c r="D60">
+        <v>9.0791666666666659E-2</v>
+      </c>
+      <c r="E60">
+        <v>56.406195652978312</v>
+      </c>
+      <c r="F60">
+        <v>19.89862690450127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61">
+        <v>12.199351812905096</v>
+      </c>
+      <c r="C61">
+        <v>0.71754374499718887</v>
+      </c>
+      <c r="D61">
+        <v>5.8961538461538461E-2</v>
+      </c>
+      <c r="E61">
+        <v>56.431559233377605</v>
+      </c>
+      <c r="F61">
+        <v>17.476151415751058</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62">
+        <v>56.453911073764218</v>
+      </c>
+      <c r="F62">
+        <v>19.228393920775744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>16.57051119558411</v>
+      </c>
+      <c r="C63">
+        <v>1.049679772284053</v>
+      </c>
+      <c r="D63">
+        <v>6.3323232323232309E-2</v>
+      </c>
+      <c r="E63">
+        <v>56.470996718300235</v>
+      </c>
+      <c r="F63">
+        <v>20.480801659766694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64">
+        <v>10.412207498460862</v>
+      </c>
+      <c r="C64">
+        <v>1.2138910364124511</v>
+      </c>
+      <c r="D64">
+        <v>0.11741666666666667</v>
+      </c>
+      <c r="E64">
+        <v>56.532192483117058</v>
+      </c>
+      <c r="F64">
+        <v>16.929365808087983</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65">
+        <v>56.561863831712287</v>
+      </c>
+      <c r="F65">
+        <v>17.201530689233856</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66">
+        <v>12.388789797582586</v>
+      </c>
+      <c r="C66">
+        <v>0.76524788631772611</v>
+      </c>
+      <c r="D66">
+        <v>6.2375E-2</v>
+      </c>
+      <c r="E66">
+        <v>56.582627516480031</v>
+      </c>
+      <c r="F66">
+        <v>22.49718800848305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67">
+        <v>12.127967174015879</v>
+      </c>
+      <c r="C67">
+        <v>1.5254049689987321</v>
+      </c>
+      <c r="D67">
+        <v>0.12575</v>
+      </c>
+      <c r="E67">
+        <v>56.630493636037791</v>
+      </c>
+      <c r="F67">
+        <v>16.610695477931909</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68">
+        <v>14.151100919268313</v>
+      </c>
+      <c r="C68">
+        <v>0.70950051245199153</v>
+      </c>
+      <c r="D68">
+        <v>5.0633333333333336E-2</v>
+      </c>
+      <c r="E68">
+        <v>56.64649970936658</v>
+      </c>
+      <c r="F68">
+        <v>22.302430103959598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69">
+        <v>12.042872497414574</v>
+      </c>
+      <c r="C69">
+        <v>1.6854753008194925</v>
+      </c>
+      <c r="D69">
+        <v>0.1401</v>
+      </c>
+      <c r="E69">
+        <v>56.657290526403301</v>
+      </c>
+      <c r="F69">
+        <v>18.459128973397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70">
+        <v>12.852737897299004</v>
+      </c>
+      <c r="C70">
+        <v>0.84765853302069416</v>
+      </c>
+      <c r="D70">
+        <v>6.5958333333333341E-2</v>
+      </c>
+      <c r="E70">
+        <v>56.722559593945455</v>
+      </c>
+      <c r="F70">
+        <v>19.167761854684411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71">
+        <v>9.5248156723595283</v>
+      </c>
+      <c r="C71">
+        <v>0.99313370139315937</v>
+      </c>
+      <c r="D71">
+        <v>0.10450000000000001</v>
+      </c>
+      <c r="E71">
+        <v>56.783150560999729</v>
+      </c>
+      <c r="F71">
+        <v>20.905364322880938</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>7.0273284127658968</v>
+      </c>
+      <c r="C72">
+        <v>0.80821954601524593</v>
+      </c>
+      <c r="D72">
+        <v>0.1152</v>
+      </c>
+      <c r="E72">
+        <v>56.906434759822474</v>
+      </c>
+      <c r="F72">
+        <v>16.642870979568251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73">
+        <v>9.4239199684443058</v>
+      </c>
+      <c r="C73">
+        <v>0.95831189669132211</v>
+      </c>
+      <c r="D73">
+        <v>0.10237500000000001</v>
+      </c>
+      <c r="E73">
+        <v>56.950454064836407</v>
+      </c>
+      <c r="F73">
+        <v>17.06061983827324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74">
+        <v>10.098513382529184</v>
+      </c>
+      <c r="C74">
+        <v>1.0472252263368174</v>
+      </c>
+      <c r="D74">
+        <v>0.10377777777777777</v>
+      </c>
+      <c r="E74">
+        <v>56.970755931579873</v>
+      </c>
+      <c r="F74">
+        <v>21.979889831882364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75">
+        <v>5.7846883584906497</v>
+      </c>
+      <c r="C75">
+        <v>0.73220308189750372</v>
+      </c>
+      <c r="D75">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="E75">
+        <v>56.980460521537047</v>
+      </c>
+      <c r="F75">
+        <v>14.245368340667399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76">
+        <v>10.88874935847862</v>
+      </c>
+      <c r="C76">
+        <v>0.9820710916123373</v>
+      </c>
+      <c r="D76">
+        <v>9.0410714285714289E-2</v>
+      </c>
+      <c r="E76">
+        <v>57.012942036607107</v>
+      </c>
+      <c r="F76">
+        <v>21.080211393659265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77">
+        <v>14.025839239381433</v>
+      </c>
+      <c r="C77">
+        <v>0.62672642539701606</v>
+      </c>
+      <c r="D77">
+        <v>4.4549999999999999E-2</v>
+      </c>
+      <c r="E77">
+        <v>57.030790770250192</v>
+      </c>
+      <c r="F77">
+        <v>21.791103782946141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="1">
+        <v>11.736793261235235</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.88915784676531695</v>
+      </c>
+      <c r="D78" s="1">
+        <v>7.5750000000000012E-2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>57.090398264984245</v>
+      </c>
+      <c r="F78" s="1">
+        <v>17.817881964919394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79">
+        <v>10.488095214396978</v>
+      </c>
+      <c r="C79">
+        <v>0.9648863285155751</v>
+      </c>
+      <c r="D79">
+        <v>9.1883333333333345E-2</v>
+      </c>
+      <c r="E79">
+        <v>57.259971622260764</v>
+      </c>
+      <c r="F79">
+        <v>18.514845266021148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80">
+        <v>12.967786642006306</v>
+      </c>
+      <c r="C80">
+        <v>0.85171237940195643</v>
+      </c>
+      <c r="D80">
+        <v>6.5683333333333344E-2</v>
+      </c>
+      <c r="E80">
+        <v>57.298153677411491</v>
+      </c>
+      <c r="F80">
+        <v>19.957146473590246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>11.110659442751803</v>
+      </c>
+      <c r="C81">
+        <v>1.2090417593612643</v>
+      </c>
+      <c r="D81">
+        <v>0.10881818181818183</v>
+      </c>
+      <c r="E81">
+        <v>57.428410115197558</v>
+      </c>
+      <c r="F81">
+        <v>16.130004884312534</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82">
+        <v>8.3246952190465269</v>
+      </c>
+      <c r="C82">
+        <v>0.55730954383983988</v>
+      </c>
+      <c r="D82">
+        <v>6.7133333333333337E-2</v>
+      </c>
+      <c r="E82">
+        <v>57.488108285220385</v>
+      </c>
+      <c r="F82">
+        <v>21.095956756733749</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83">
+        <v>5.0156949248087024</v>
+      </c>
+      <c r="C83">
+        <v>0.50307251505378081</v>
+      </c>
+      <c r="D83">
+        <v>0.10229761904761905</v>
+      </c>
+      <c r="E83">
+        <v>57.536730177137862</v>
+      </c>
+      <c r="F83">
+        <v>17.782726573437923</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>6.294732214139847</v>
+      </c>
+      <c r="C84">
+        <v>0.98973033306666269</v>
+      </c>
+      <c r="D84">
+        <v>0.15725</v>
+      </c>
+      <c r="E84">
+        <v>57.717990527214845</v>
+      </c>
+      <c r="F84">
+        <v>15.698266544978276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85">
+        <v>15.209197204033034</v>
+      </c>
+      <c r="C85">
+        <v>1.1775481990417076</v>
+      </c>
+      <c r="D85">
+        <v>7.7613636363636357E-2</v>
+      </c>
+      <c r="E85">
+        <v>57.841250009080134</v>
+      </c>
+      <c r="F85">
+        <v>17.832017605731696</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86">
+        <v>5.5673469731246321</v>
+      </c>
+      <c r="C86">
+        <v>0.85642801296805326</v>
+      </c>
+      <c r="D86">
+        <v>0.15426666666666666</v>
+      </c>
+      <c r="E86">
+        <v>57.991067519047199</v>
+      </c>
+      <c r="F86">
+        <v>16.069271235804596</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87">
+        <v>10.520622272186191</v>
+      </c>
+      <c r="C87">
+        <v>0.40256955020833507</v>
+      </c>
+      <c r="D87">
+        <v>3.8410714285714284E-2</v>
+      </c>
+      <c r="E87">
+        <v>58.020595693627705</v>
+      </c>
+      <c r="F87">
+        <v>20.589848590749448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>4.9510356218815215</v>
+      </c>
+      <c r="C88">
+        <v>0.87805799671435691</v>
+      </c>
+      <c r="D88">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="E88">
+        <v>58.059656523049128</v>
+      </c>
+      <c r="F88">
+        <v>24.843657251340069</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89">
+        <v>13.059862171811071</v>
+      </c>
+      <c r="C89">
+        <v>0.47702718324834625</v>
+      </c>
+      <c r="D89">
+        <v>3.6592857142857149E-2</v>
+      </c>
+      <c r="E89">
+        <v>58.140127888274293</v>
+      </c>
+      <c r="F89">
+        <v>21.038094564105954</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>5.4132955578041795</v>
+      </c>
+      <c r="C90">
+        <v>0.80009773243661453</v>
+      </c>
+      <c r="D90">
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="E90">
+        <v>58.272168220591169</v>
+      </c>
+      <c r="F90">
+        <v>12.564556042857705</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91">
+        <v>7.9101359270252747</v>
+      </c>
+      <c r="C91">
+        <v>1.8495048938920313</v>
+      </c>
+      <c r="D91">
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="E91">
+        <v>58.309246276578961</v>
+      </c>
+      <c r="F91">
+        <v>12.924438792651276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92">
+        <v>5.0077907026926898</v>
+      </c>
+      <c r="C92">
+        <v>0.9262060803949097</v>
+      </c>
+      <c r="D92">
+        <v>0.18496666666666667</v>
+      </c>
+      <c r="E92">
+        <v>58.330324718075055</v>
+      </c>
+      <c r="F92">
+        <v>11.391865844148363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93">
+        <v>5.8136322168481227</v>
+      </c>
+      <c r="C93">
+        <v>0.80716627443325761</v>
+      </c>
+      <c r="D93">
+        <v>0.138875</v>
+      </c>
+      <c r="E93">
+        <v>58.426161395465456</v>
+      </c>
+      <c r="F93">
+        <v>14.737370655311341</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94">
+        <v>11.850257336810611</v>
+      </c>
+      <c r="C94">
+        <v>0.8087261656843423</v>
+      </c>
+      <c r="D94">
+        <v>6.831818181818182E-2</v>
+      </c>
+      <c r="E94">
+        <v>58.445301608751052</v>
+      </c>
+      <c r="F94">
+        <v>18.702493180710476</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95">
+        <v>3.9544750484211608</v>
+      </c>
+      <c r="C95">
+        <v>0.78882707378730088</v>
+      </c>
+      <c r="D95">
+        <v>0.19949999999999998</v>
+      </c>
+      <c r="E95">
+        <v>58.621444569811878</v>
+      </c>
+      <c r="F95">
+        <v>14.164813026114173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>5.0805654094961934</v>
+      </c>
+      <c r="C96">
+        <v>0.94540550950718316</v>
+      </c>
+      <c r="D96">
+        <v>0.186</v>
+      </c>
+      <c r="E96">
+        <v>58.62591871070574</v>
+      </c>
+      <c r="F96">
+        <v>13.924413053888991</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>6.4366002158585136</v>
+      </c>
+      <c r="C97">
+        <v>1.4335107352122169</v>
+      </c>
+      <c r="D97">
+        <v>0.22275</v>
+      </c>
+      <c r="E97">
+        <v>59.029332490496145</v>
+      </c>
+      <c r="F97">
+        <v>13.386028381481513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>6.8909282534356198</v>
+      </c>
+      <c r="C98">
+        <v>1.5427710320161228</v>
+      </c>
+      <c r="D98">
+        <v>0.22416666666666665</v>
+      </c>
+      <c r="E98">
+        <v>59.08223143040636</v>
+      </c>
+      <c r="F98">
+        <v>12.48311331907024</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="1">
+        <v>13.103461928005833</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1.0109281323543353</v>
+      </c>
+      <c r="D99" s="1">
+        <v>7.7979166666666669E-2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>59.33339454595535</v>
+      </c>
+      <c r="F99" s="1">
+        <v>18.575753494851032</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100">
+        <v>4.8116657734707537</v>
+      </c>
+      <c r="C100">
+        <v>0.67283065118461916</v>
+      </c>
+      <c r="D100">
+        <v>0.13983333333333334</v>
+      </c>
+      <c r="E100">
+        <v>59.865985235661554</v>
+      </c>
+      <c r="F100">
+        <v>12.336082717843052</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101">
+        <v>3.9981577386966638</v>
+      </c>
+      <c r="C101">
+        <v>0.63501614438465193</v>
+      </c>
+      <c r="D101">
+        <v>0.15883333333333333</v>
+      </c>
+      <c r="E101">
+        <v>59.914211576141632</v>
+      </c>
+      <c r="F101">
+        <v>11.233768605691132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>7.1873666798913831</v>
+      </c>
+      <c r="C102">
+        <v>1.6419285233017287</v>
+      </c>
+      <c r="D102">
+        <v>0.22833333333333333</v>
+      </c>
+      <c r="E102">
+        <v>60.550564284133657</v>
+      </c>
+      <c r="F102">
+        <v>9.0264054843143988</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>5.3009710616617305</v>
+      </c>
+      <c r="C103">
+        <v>1.7626555659624552</v>
+      </c>
+      <c r="D103">
+        <v>0.33366666666666667</v>
+      </c>
+      <c r="E103">
+        <v>61.014809419762081</v>
+      </c>
+      <c r="F103">
+        <v>13.154195901804314</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104">
+        <v>6.4560618295720014</v>
+      </c>
+      <c r="C104">
+        <v>1.3704402106345528</v>
+      </c>
+      <c r="D104">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="E104">
+        <v>61.464171909469719</v>
+      </c>
+      <c r="F104">
+        <v>11.205590388609627</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105">
+        <v>14.926790527233905</v>
+      </c>
+      <c r="C105">
+        <v>1.1144174293222344</v>
+      </c>
+      <c r="D105">
+        <v>7.514285714285715E-2</v>
+      </c>
+      <c r="E105">
+        <v>61.593679972653717</v>
+      </c>
+      <c r="F105">
+        <v>15.662177455640315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106">
+        <v>61.756700688739528</v>
+      </c>
+      <c r="F106">
+        <v>16.339050150831504</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" t="s">
+        <v>118</v>
+      </c>
+      <c r="E107">
+        <v>64.35322171866612</v>
+      </c>
+      <c r="F107">
+        <v>15.131498582621644</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108">
+        <v>9.742702066453532</v>
+      </c>
+      <c r="C108">
+        <v>0.7288746481606011</v>
+      </c>
+      <c r="D108">
+        <v>7.5226190476190474E-2</v>
+      </c>
+      <c r="E108">
+        <v>64.922114422725755</v>
+      </c>
+      <c r="F108">
+        <v>15.184667123426191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" t="s">
+        <v>118</v>
+      </c>
+      <c r="E109">
+        <v>66.438144595267119</v>
+      </c>
+      <c r="F109">
+        <v>9.281145446100254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110">
+        <v>4.2108106696278371</v>
+      </c>
+      <c r="C110">
+        <v>0.88111213261962495</v>
+      </c>
+      <c r="D110">
+        <v>0.18812499999999999</v>
+      </c>
+      <c r="E110">
+        <v>66.959895339919697</v>
+      </c>
+      <c r="F110">
+        <v>12.192148828000576</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>5.0600391110026184</v>
+      </c>
+      <c r="C111">
+        <v>1.2988491104685094</v>
+      </c>
+      <c r="D111">
+        <v>0.2583333333333333</v>
+      </c>
+      <c r="E111">
+        <v>68.66579606050712</v>
+      </c>
+      <c r="F111">
+        <v>11.064463449312681</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>3.5461196452012143</v>
+      </c>
+      <c r="C112">
+        <v>0.83180457023854082</v>
+      </c>
+      <c r="D112">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="E112">
+        <v>68.753267575197782</v>
+      </c>
+      <c r="F112">
+        <v>12.04863273323142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113">
+        <v>3.2106455097456599</v>
+      </c>
+      <c r="C113">
+        <v>0.7202548093529425</v>
+      </c>
+      <c r="D113">
+        <v>0.20716666666666667</v>
+      </c>
+      <c r="E113">
+        <v>69.963167587476974</v>
+      </c>
+      <c r="F113">
+        <v>11.657816836437949</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>147</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" t="s">
+        <v>118</v>
+      </c>
+      <c r="E114">
+        <v>71.702838063439131</v>
+      </c>
+      <c r="F114">
+        <v>5.8370799428637108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>2.7317140650316665</v>
+      </c>
+      <c r="C115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" t="s">
+        <v>118</v>
+      </c>
+      <c r="E115">
+        <v>85.325000000000003</v>
+      </c>
+      <c r="F115">
+        <v>1.3429719760611649</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>6.0177634368769173</v>
+      </c>
+      <c r="C116">
+        <v>0.66638493252779374</v>
+      </c>
+      <c r="D116">
+        <v>0.11115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>6.3412768574908984</v>
+      </c>
+      <c r="C117">
+        <v>0.84690266441943307</v>
+      </c>
+      <c r="D117">
+        <v>0.13355</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>3.6957559945541636</v>
+      </c>
+      <c r="C118">
+        <v>0.76614040545721174</v>
+      </c>
+      <c r="D118">
+        <v>0.20874999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>3.6957559945541636</v>
+      </c>
+      <c r="C119">
+        <v>0.76614040545721174</v>
+      </c>
+      <c r="D119">
+        <v>0.20874999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>5.3322011006116981</v>
+      </c>
+      <c r="C120">
+        <v>0.90152653212248168</v>
+      </c>
+      <c r="D120">
+        <v>0.16912500000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>5.4161042854846269</v>
+      </c>
+      <c r="C121">
+        <v>0.55723356527629642</v>
+      </c>
+      <c r="D121">
+        <v>0.10292857142857142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>4.7538938672855657</v>
+      </c>
+      <c r="C122">
+        <v>0.48293327577856537</v>
+      </c>
+      <c r="D122">
+        <v>0.10163194444444446</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>4.7836606433009363</v>
+      </c>
+      <c r="C123">
+        <v>0.62899063892424967</v>
+      </c>
+      <c r="D123">
+        <v>0.13150000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>6.8766972805530591</v>
+      </c>
+      <c r="C124">
+        <v>0.94499851881947983</v>
+      </c>
+      <c r="D124">
+        <v>0.13779999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>4.8121582918741366</v>
+      </c>
+      <c r="C125">
+        <v>0.51577614906446789</v>
+      </c>
+      <c r="D125">
+        <v>0.10714285714285715</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126">
+        <v>7.1720698768188242</v>
+      </c>
+      <c r="C126">
+        <v>0.43078350882548472</v>
+      </c>
+      <c r="D126">
+        <v>6.0395833333333336E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127">
+        <v>9.1264624134192722</v>
+      </c>
+      <c r="C127">
+        <v>0.41854844678855141</v>
+      </c>
+      <c r="D127">
+        <v>4.5949999999999998E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>77</v>
+      </c>
+      <c r="B128">
+        <v>16.119508609558565</v>
+      </c>
+      <c r="C128">
+        <v>1.4272249849528831</v>
+      </c>
+      <c r="D128">
+        <v>8.8512499999999994E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>81</v>
+      </c>
+      <c r="B129">
+        <v>10.680707056824719</v>
+      </c>
+      <c r="C129">
+        <v>1.3602190424210081</v>
+      </c>
+      <c r="D129">
+        <v>0.12740000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>93</v>
+      </c>
+      <c r="B130">
+        <v>8.7169610839747271</v>
+      </c>
+      <c r="C130">
+        <v>0.92481491397195259</v>
+      </c>
+      <c r="D130">
+        <v>0.10505</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>6.7548824870428517</v>
+      </c>
+      <c r="C131">
+        <v>0.63051872789115881</v>
+      </c>
+      <c r="D131">
+        <v>9.3262499999999998E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>10.610498720417336</v>
+      </c>
+      <c r="C132">
+        <v>0.97585287324184344</v>
+      </c>
+      <c r="D132">
+        <v>9.2249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>8.1591569839438112</v>
+      </c>
+      <c r="C133">
+        <v>1.0955509604306197</v>
+      </c>
+      <c r="D133">
+        <v>0.14116666666666666</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>10.041530819260883</v>
+      </c>
+      <c r="C134">
+        <v>0.84668531132411484</v>
+      </c>
+      <c r="D134">
+        <v>8.4388888888888888E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>6.4193077937705336</v>
+      </c>
+      <c r="C135">
+        <v>0.64206968299169243</v>
+      </c>
+      <c r="D135">
+        <v>9.9312499999999998E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>3.8295907453662732</v>
+      </c>
+      <c r="C136">
+        <v>0.40630437230407002</v>
+      </c>
+      <c r="D136">
+        <v>0.10696666666666667</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>5.0761866617756795</v>
+      </c>
+      <c r="C137">
+        <v>0.69852952110979438</v>
+      </c>
+      <c r="D137">
+        <v>0.13602083333333334</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7.4344436429940197</v>
+      </c>
+      <c r="C138">
+        <v>0.74304274397452996</v>
+      </c>
+      <c r="D138">
+        <v>9.9971428571428572E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>7.1975967458699674</v>
+      </c>
+      <c r="C139">
+        <v>0.76961648547631789</v>
+      </c>
+      <c r="D139">
+        <v>0.10685714285714287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7.9148868034148308</v>
+      </c>
+      <c r="C140">
+        <v>0.89293814570297392</v>
+      </c>
+      <c r="D140">
+        <v>0.11536250000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7.0220221405292262</v>
+      </c>
+      <c r="C141">
+        <v>1.3887451858635051</v>
+      </c>
+      <c r="D141">
+        <v>0.19793333333333332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>8.0604671660342042</v>
+      </c>
+      <c r="C142">
+        <v>0.71204110778668595</v>
+      </c>
+      <c r="D142">
+        <v>8.8333333333333347E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F142">
+    <sortCondition ref="E2:E142"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA58218A-9D83-47A5-99F1-DA4BE885C2D0}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -777,8 +3602,14 @@
       <c r="D2">
         <v>0.22833333333333333</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>60.550564284133657</v>
+      </c>
+      <c r="F2">
+        <v>9.0264054843143988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -786,18 +3617,24 @@
         <v>2.7317140650316665</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="E3">
+        <v>85.325000000000003</v>
+      </c>
+      <c r="F3">
+        <v>1.3429719760611649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3.2106455097456577</v>
+        <v>3.2106455097456599</v>
       </c>
       <c r="C4">
         <v>0.7202548093529425</v>
@@ -805,8 +3642,14 @@
       <c r="D4">
         <v>0.20716666666666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>69.963167587476974</v>
+      </c>
+      <c r="F4">
+        <v>11.657816836437949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -819,8 +3662,14 @@
       <c r="D5">
         <v>0.33366666666666667</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>61.014809419762081</v>
+      </c>
+      <c r="F5">
+        <v>13.154195901804314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -833,8 +3682,14 @@
       <c r="D6">
         <v>0.17649999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>58.059656523049128</v>
+      </c>
+      <c r="F6">
+        <v>24.843657251340069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -847,8 +3702,14 @@
       <c r="D7">
         <v>0.22416666666666665</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>59.08223143040636</v>
+      </c>
+      <c r="F7">
+        <v>12.48311331907024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -861,8 +3722,14 @@
       <c r="D8">
         <v>0.15179999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>56.255728200865363</v>
+      </c>
+      <c r="F8">
+        <v>18.493197682851633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -875,8 +3742,14 @@
       <c r="D9">
         <v>0.14800000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>58.272168220591169</v>
+      </c>
+      <c r="F9">
+        <v>12.564556042857705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -889,8 +3762,14 @@
       <c r="D10">
         <v>0.13983333333333334</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>59.865985235661554</v>
+      </c>
+      <c r="F10">
+        <v>12.336082717843052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -903,8 +3782,14 @@
       <c r="D11">
         <v>0.19949999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>58.621444569811878</v>
+      </c>
+      <c r="F11">
+        <v>14.164813026114173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -917,8 +3802,14 @@
       <c r="D12">
         <v>0.18496666666666667</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>58.330324718075055</v>
+      </c>
+      <c r="F12">
+        <v>11.391865844148363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -931,8 +3822,14 @@
       <c r="D13">
         <v>0.15725</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>57.717990527214845</v>
+      </c>
+      <c r="F13">
+        <v>15.698266544978276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -945,8 +3842,14 @@
       <c r="D14">
         <v>0.15426666666666666</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>57.991067519047199</v>
+      </c>
+      <c r="F14">
+        <v>16.069271235804596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -959,8 +3862,14 @@
       <c r="D15">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>58.62591871070574</v>
+      </c>
+      <c r="F15">
+        <v>13.924413053888991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -973,8 +3882,14 @@
       <c r="D16">
         <v>0.22275</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>59.029332490496145</v>
+      </c>
+      <c r="F16">
+        <v>13.386028381481513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -987,8 +3902,14 @@
       <c r="D17">
         <v>0.138875</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>58.426161395465456</v>
+      </c>
+      <c r="F17">
+        <v>14.737370655311341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1001,8 +3922,14 @@
       <c r="D18">
         <v>0.15883333333333333</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>59.914211576141632</v>
+      </c>
+      <c r="F18">
+        <v>11.233768605691132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1015,1335 +3942,2309 @@
       <c r="D19">
         <v>0.12670000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>56.980460521537047</v>
+      </c>
+      <c r="F19">
+        <v>14.245368340667399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>6.0177634368769173</v>
+      </c>
+      <c r="C20">
+        <v>0.66638493252779374</v>
+      </c>
+      <c r="D20">
+        <v>0.11115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>6.3412768574908984</v>
+      </c>
+      <c r="C21">
+        <v>0.84690266441943307</v>
+      </c>
+      <c r="D21">
+        <v>0.13355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>5.2513534655235468</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>0.82526175790682388</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>0.15716666666666668</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E22">
+        <v>53.770320558856163</v>
+      </c>
+      <c r="F22">
+        <v>17.42111091468804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>7.3322136933840598</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>0.82022765068661274</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>0.11401249999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="E23">
+        <v>53.29078143521474</v>
+      </c>
+      <c r="F23">
+        <v>22.526880921427853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>7.0273284127658968</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>0.80821954601524593</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>0.1152</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E24">
+        <v>56.906434759822474</v>
+      </c>
+      <c r="F24">
+        <v>16.642870979568251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25">
+        <v>3.6957559945541636</v>
+      </c>
+      <c r="C25">
+        <v>0.76614040545721174</v>
+      </c>
+      <c r="D25">
+        <v>0.20874999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26">
+        <v>3.6957559945541636</v>
+      </c>
+      <c r="C26">
+        <v>0.76614040545721174</v>
+      </c>
+      <c r="D26">
+        <v>0.20874999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27">
+        <v>5.3322011006116981</v>
+      </c>
+      <c r="C27">
+        <v>0.90152653212248168</v>
+      </c>
+      <c r="D27">
+        <v>0.16912500000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28">
+        <v>5.4161042854846269</v>
+      </c>
+      <c r="C28">
+        <v>0.55723356527629642</v>
+      </c>
+      <c r="D28">
+        <v>0.10292857142857142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29">
+        <v>4.7538938672855657</v>
+      </c>
+      <c r="C29">
+        <v>0.48293327577856537</v>
+      </c>
+      <c r="D29">
+        <v>0.10163194444444446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30">
+        <v>4.7836606433009363</v>
+      </c>
+      <c r="C30">
+        <v>0.62899063892424967</v>
+      </c>
+      <c r="D30">
+        <v>0.13150000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31">
+        <v>6.8766972805530591</v>
+      </c>
+      <c r="C31">
+        <v>0.94499851881947983</v>
+      </c>
+      <c r="D31">
+        <v>0.13779999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32">
+        <v>4.8121582918741366</v>
+      </c>
+      <c r="C32">
+        <v>0.51577614906446789</v>
+      </c>
+      <c r="D32">
+        <v>0.10714285714285715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B33">
         <v>5.7942414868214938</v>
       </c>
-      <c r="C23">
+      <c r="C33">
         <v>0.84384377790814369</v>
       </c>
-      <c r="D23">
+      <c r="D33">
         <v>0.14560000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="E33">
+        <v>55.516444937176644</v>
+      </c>
+      <c r="F33">
+        <v>20.696862444791059</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B34">
         <v>8.7485461583945998</v>
       </c>
-      <c r="C24">
+      <c r="C34">
         <v>1.4284146977498788</v>
       </c>
-      <c r="D24">
+      <c r="D34">
         <v>0.158</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="E34">
+        <v>53.2727288116943</v>
+      </c>
+      <c r="F34">
+        <v>17.740260968023431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B35">
         <v>4.9594424566705939</v>
       </c>
-      <c r="C25">
+      <c r="C35">
         <v>0.82740445093502213</v>
       </c>
-      <c r="D25">
+      <c r="D35">
         <v>0.16728571428571429</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="E35">
+        <v>54.261674303427974</v>
+      </c>
+      <c r="F35">
+        <v>15.857587584105298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B36">
         <v>6.8381544499823068</v>
       </c>
-      <c r="C26">
+      <c r="C36">
         <v>0.9617505057073531</v>
       </c>
-      <c r="D26">
+      <c r="D36">
         <v>0.14250000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="E36">
+        <v>53.773835989604521</v>
+      </c>
+      <c r="F36">
+        <v>17.096378762886179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B37">
         <v>8.0919192415731889</v>
       </c>
-      <c r="C27">
+      <c r="C37">
         <v>0.90885933936182595</v>
       </c>
-      <c r="D27">
+      <c r="D37">
         <v>0.11153333333333333</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="E37">
+        <v>52.711661964029155</v>
+      </c>
+      <c r="F37">
+        <v>18.723892723388769</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B38">
         <v>8.8367510210296807</v>
       </c>
-      <c r="C28">
+      <c r="C38">
         <v>1.0418331447347282</v>
       </c>
-      <c r="D28">
+      <c r="D38">
         <v>0.12129999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="E38">
+        <v>54.631994838116618</v>
+      </c>
+      <c r="F38">
+        <v>17.525989697446523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B39">
         <v>14.011647091105587</v>
       </c>
-      <c r="C29">
+      <c r="C39">
         <v>1.0719799424334187</v>
       </c>
-      <c r="D29">
+      <c r="D39">
         <v>7.6499999999999999E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="E39">
+        <v>54.468780260638816</v>
+      </c>
+      <c r="F39">
+        <v>19.354596304868483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B40">
         <v>7.1720698768188242</v>
       </c>
-      <c r="C30">
+      <c r="C40">
         <v>0.43078350882548472</v>
       </c>
-      <c r="D30">
+      <c r="D40">
         <v>6.0395833333333336E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B41">
         <v>9.1264624134192722</v>
       </c>
-      <c r="C31">
+      <c r="C41">
         <v>0.41854844678855141</v>
       </c>
-      <c r="D31">
+      <c r="D41">
         <v>4.5949999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B42">
         <v>9.1631395719128612</v>
       </c>
-      <c r="C32">
+      <c r="C42">
         <v>0.42269988687312621</v>
       </c>
-      <c r="D32">
+      <c r="D42">
         <v>4.5682539682539686E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="E42">
+        <v>55.569304711178056</v>
+      </c>
+      <c r="F42">
+        <v>23.380748318557337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B43">
         <v>8.9261451113254395</v>
       </c>
-      <c r="C33">
+      <c r="C43">
         <v>0.85435168859560706</v>
       </c>
-      <c r="D33">
+      <c r="D43">
         <v>9.5649999999999985E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="E43">
+        <v>54.608372173499312</v>
+      </c>
+      <c r="F43">
+        <v>20.109621451307884</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B44">
         <v>9.1364195266609656</v>
       </c>
-      <c r="C34">
+      <c r="C44">
         <v>0.6030057146073744</v>
       </c>
-      <c r="D34">
+      <c r="D44">
         <v>6.5484162895927595E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="E44">
+        <v>56.317658926951673</v>
+      </c>
+      <c r="F44">
+        <v>17.496749749893326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B45">
         <v>9.742702066453532</v>
       </c>
-      <c r="C35">
+      <c r="C45">
         <v>0.7288746481606011</v>
       </c>
-      <c r="D35">
+      <c r="D45">
         <v>7.5226190476190474E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="E45">
+        <v>64.922114422725755</v>
+      </c>
+      <c r="F45">
+        <v>15.184667123426191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B46">
         <v>8.2427622085796273</v>
       </c>
-      <c r="C36">
+      <c r="C46">
         <v>0.64637713981615741</v>
       </c>
-      <c r="D36">
+      <c r="D46">
         <v>7.9250000000000001E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="E46">
+        <v>54.278605398255173</v>
+      </c>
+      <c r="F46">
+        <v>20.116037451013778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B47">
         <v>13.181769369076905</v>
       </c>
-      <c r="C37">
+      <c r="C47">
         <v>1.200442129870932</v>
       </c>
-      <c r="D37">
+      <c r="D47">
         <v>9.0791666666666659E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="E47">
+        <v>56.406195652978312</v>
+      </c>
+      <c r="F47">
+        <v>19.89862690450127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B48">
         <v>11.850257336810611</v>
       </c>
-      <c r="C38">
+      <c r="C48">
         <v>0.8087261656843423</v>
       </c>
-      <c r="D38">
+      <c r="D48">
         <v>6.831818181818182E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="E48">
+        <v>58.445301608751052</v>
+      </c>
+      <c r="F48">
+        <v>18.702493180710476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B49">
         <v>8.3246952190465269</v>
       </c>
-      <c r="C39">
+      <c r="C49">
         <v>0.55730954383983988</v>
       </c>
-      <c r="D39">
+      <c r="D49">
         <v>6.7133333333333337E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="E49">
+        <v>57.488108285220385</v>
+      </c>
+      <c r="F49">
+        <v>21.095956756733749</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B50">
         <v>10.488095214396978</v>
       </c>
-      <c r="C40">
+      <c r="C50">
         <v>0.9648863285155751</v>
       </c>
-      <c r="D40">
+      <c r="D50">
         <v>9.1883333333333345E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="E50">
+        <v>57.259971622260764</v>
+      </c>
+      <c r="F50">
+        <v>18.514845266021148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B51">
         <v>15.3190230102221</v>
       </c>
-      <c r="C41">
+      <c r="C51">
         <v>0.91974776556432847</v>
       </c>
-      <c r="D41">
+      <c r="D51">
         <v>5.9849206349206346E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="E51">
+        <v>55.487203135808151</v>
+      </c>
+      <c r="F51">
+        <v>21.184351170105426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B52">
         <v>9.895914239027622</v>
       </c>
-      <c r="C42">
+      <c r="C52">
         <v>0.46349044312924659</v>
       </c>
-      <c r="D42">
+      <c r="D52">
         <v>4.6842222222222216E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="E52">
+        <v>55.807560744937554</v>
+      </c>
+      <c r="F52">
+        <v>18.554706019380397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B53">
         <v>14.926790527233905</v>
       </c>
-      <c r="C43">
+      <c r="C53">
         <v>1.1144174293222344</v>
       </c>
-      <c r="D43">
+      <c r="D53">
         <v>7.514285714285715E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="E53">
+        <v>61.593679972653717</v>
+      </c>
+      <c r="F53">
+        <v>15.662177455640315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B54">
         <v>12.199937821088646</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C54" t="s">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D54" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="E54">
+        <v>54.822217824394734</v>
+      </c>
+      <c r="F54">
+        <v>25.146940568980934</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B55">
         <v>13.059862171811071</v>
       </c>
-      <c r="C45">
+      <c r="C55">
         <v>0.47702718324834625</v>
       </c>
-      <c r="D45">
+      <c r="D55">
         <v>3.6592857142857149E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="E55">
+        <v>58.140127888274293</v>
+      </c>
+      <c r="F55">
+        <v>21.038094564105954</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B56">
         <v>8.1139548602214866</v>
       </c>
-      <c r="C46">
+      <c r="C56">
         <v>0.62651589163369537</v>
       </c>
-      <c r="D46">
+      <c r="D56">
         <v>7.7709090909090908E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="E56">
+        <v>55.676095938090455</v>
+      </c>
+      <c r="F56">
+        <v>18.997027645055812</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B57">
         <v>10.520622272186191</v>
       </c>
-      <c r="C47">
+      <c r="C57">
         <v>0.40256955020833507</v>
       </c>
-      <c r="D47">
+      <c r="D57">
         <v>3.8410714285714284E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="E57">
+        <v>58.020595693627705</v>
+      </c>
+      <c r="F57">
+        <v>20.589848590749448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B58">
         <v>11.250591921135268</v>
       </c>
-      <c r="C48">
+      <c r="C58">
         <v>0.84609992215044727</v>
       </c>
-      <c r="D48">
+      <c r="D58">
         <v>7.511515151515151E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="E58">
+        <v>55.833500449032613</v>
+      </c>
+      <c r="F58">
+        <v>20.114192528644772</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B59">
         <v>11.736793261235235</v>
       </c>
-      <c r="C49">
+      <c r="C59">
         <v>0.88915784676531695</v>
       </c>
-      <c r="D49">
+      <c r="D59">
         <v>7.5750000000000012E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="E59">
+        <v>57.090398264984245</v>
+      </c>
+      <c r="F59">
+        <v>17.817881964919394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B60">
         <v>12.852737897299004</v>
       </c>
-      <c r="C50">
+      <c r="C60">
         <v>0.84765853302069416</v>
       </c>
-      <c r="D50">
+      <c r="D60">
         <v>6.5958333333333341E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="E60">
+        <v>56.722559593945455</v>
+      </c>
+      <c r="F60">
+        <v>19.167761854684411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B61">
         <v>9.1201577780291814</v>
       </c>
-      <c r="C51">
+      <c r="C61">
         <v>0.8569171502096109</v>
       </c>
-      <c r="D51">
+      <c r="D61">
         <v>9.35E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="E61">
+        <v>56.380596450348776</v>
+      </c>
+      <c r="F61">
+        <v>16.761596593643311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B62">
         <v>9.4239199684443058</v>
       </c>
-      <c r="C52">
+      <c r="C62">
         <v>0.95831189669132211</v>
       </c>
-      <c r="D52">
+      <c r="D62">
         <v>0.10237500000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="E62">
+        <v>56.950454064836407</v>
+      </c>
+      <c r="F62">
+        <v>17.06061983827324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B63">
         <v>19.917836478343201</v>
       </c>
-      <c r="C53">
+      <c r="C63">
         <v>0.81340340434432035</v>
       </c>
-      <c r="D53">
+      <c r="D63">
         <v>4.0843749999999998E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="E63">
+        <v>55.361077882012225</v>
+      </c>
+      <c r="F63">
+        <v>19.045653121309698</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B64">
         <v>14.151100919268313</v>
       </c>
-      <c r="C54">
+      <c r="C64">
         <v>0.70950051245199153</v>
       </c>
-      <c r="D54">
+      <c r="D64">
         <v>5.0633333333333336E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="E64">
+        <v>56.64649970936658</v>
+      </c>
+      <c r="F64">
+        <v>22.302430103959598</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B65">
         <v>15.87122425318989</v>
       </c>
-      <c r="C55">
+      <c r="C65">
         <v>0.75966448541094966</v>
       </c>
-      <c r="D55">
+      <c r="D65">
         <v>4.7760416666666666E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="E65">
+        <v>56.289738996030472</v>
+      </c>
+      <c r="F65">
+        <v>17.514931473201148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B66">
         <v>14.444387235001791</v>
       </c>
-      <c r="C56">
+      <c r="C66">
         <v>1.4896811768812099</v>
       </c>
-      <c r="D56">
+      <c r="D66">
         <v>0.10425892857142857</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="E66">
+        <v>52.574229158736209</v>
+      </c>
+      <c r="F66">
+        <v>23.656031017294069</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B67">
         <v>10.88874935847862</v>
       </c>
-      <c r="C57">
+      <c r="C67">
         <v>0.9820710916123373</v>
       </c>
-      <c r="D57">
+      <c r="D67">
         <v>9.0410714285714289E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="E67">
+        <v>57.012942036607107</v>
+      </c>
+      <c r="F67">
+        <v>21.080211393659265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B68">
         <v>13.772560240084065</v>
       </c>
-      <c r="C58">
+      <c r="C68">
         <v>1.0490829650993865</v>
       </c>
-      <c r="D58">
+      <c r="D68">
         <v>7.6242307692307693E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="E68">
+        <v>54.155715330422623</v>
+      </c>
+      <c r="F68">
+        <v>21.491308383482284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B69">
         <v>15.209197204033034</v>
       </c>
-      <c r="C59">
+      <c r="C69">
         <v>1.1775481990417076</v>
       </c>
-      <c r="D59">
+      <c r="D69">
         <v>7.7613636363636357E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="E69">
+        <v>57.841250009080134</v>
+      </c>
+      <c r="F69">
+        <v>17.832017605731696</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="B70">
         <v>7.9887408522131658</v>
       </c>
-      <c r="C60">
+      <c r="C70">
         <v>0.46266161936238781</v>
       </c>
-      <c r="D60">
+      <c r="D70">
         <v>5.8528846153846154E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="E70">
+        <v>56.300585431395774</v>
+      </c>
+      <c r="F70">
+        <v>19.424389519677433</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B71">
         <v>12.042872497414574</v>
       </c>
-      <c r="C61">
+      <c r="C71">
         <v>1.6854753008194925</v>
       </c>
-      <c r="D61">
+      <c r="D71">
         <v>0.1401</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="E71">
+        <v>56.657290526403301</v>
+      </c>
+      <c r="F71">
+        <v>18.459128973397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B72">
         <v>16.57051119558411</v>
       </c>
-      <c r="C62">
+      <c r="C72">
         <v>1.049679772284053</v>
       </c>
-      <c r="D62">
+      <c r="D72">
         <v>6.3323232323232309E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="E72">
+        <v>56.470996718300235</v>
+      </c>
+      <c r="F72">
+        <v>20.480801659766694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B73">
         <v>9.1326596474305006</v>
       </c>
-      <c r="C63">
+      <c r="C73">
         <v>1.5351703602810094</v>
       </c>
-      <c r="D63">
+      <c r="D73">
         <v>0.16893333333333332</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="E73">
+        <v>55.395873355721434</v>
+      </c>
+      <c r="F73">
+        <v>19.568837866210004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="B74">
         <v>16.960423697318234</v>
       </c>
-      <c r="C64">
+      <c r="C74">
         <v>1.3438298996606854</v>
       </c>
-      <c r="D64">
+      <c r="D74">
         <v>7.9049999999999995E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="E74">
+        <v>53.408460144737788</v>
+      </c>
+      <c r="F74">
+        <v>23.715476405435485</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
+      <c r="B75">
         <v>14.025839239381433</v>
       </c>
-      <c r="C65">
+      <c r="C75">
         <v>0.62672642539701606</v>
       </c>
-      <c r="D65">
+      <c r="D75">
         <v>4.4549999999999999E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="E75">
+        <v>57.030790770250192</v>
+      </c>
+      <c r="F75">
+        <v>21.791103782946141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
+      <c r="B76">
         <v>18.123977666574213</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C76" t="s">
         <v>1</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D76" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="E76">
+        <v>54.76242224775153</v>
+      </c>
+      <c r="F76">
+        <v>15.763705667718064</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="B77">
         <v>16.444914268532337</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C77" t="s">
         <v>1</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D77" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="E77">
+        <v>54.007226993289223</v>
+      </c>
+      <c r="F77">
+        <v>21.138139712571064</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="B78">
         <v>13.103461928005833</v>
       </c>
-      <c r="C68">
+      <c r="C78">
         <v>1.0109281323543353</v>
       </c>
-      <c r="D68">
+      <c r="D78">
         <v>7.7979166666666669E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="E78">
+        <v>59.33339454595535</v>
+      </c>
+      <c r="F78">
+        <v>18.575753494851032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
+      <c r="B79">
         <v>14.106369397647935</v>
       </c>
-      <c r="C69">
+      <c r="C79">
         <v>1.5935342177769354</v>
       </c>
-      <c r="D69">
+      <c r="D79">
         <v>0.11168888888888889</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="E79">
+        <v>56.400456511930344</v>
+      </c>
+      <c r="F79">
+        <v>20.617306178114667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="B80">
         <v>18.045822106452725</v>
       </c>
-      <c r="C70">
+      <c r="C80">
         <v>1.0781166854915032</v>
       </c>
-      <c r="D70">
+      <c r="D80">
         <v>5.9972222222222225E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="E80">
+        <v>55.945560510761794</v>
+      </c>
+      <c r="F80">
+        <v>15.973378786574086</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
+      <c r="B81">
         <v>12.967786642006306</v>
       </c>
-      <c r="C71">
+      <c r="C81">
         <v>0.85171237940195643</v>
       </c>
-      <c r="D71">
+      <c r="D81">
         <v>6.5683333333333344E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="E81">
+        <v>57.298153677411491</v>
+      </c>
+      <c r="F81">
+        <v>19.957146473590246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
+      <c r="B82">
         <v>12.199351812905096</v>
       </c>
-      <c r="C72">
+      <c r="C82">
         <v>0.71754374499718887</v>
       </c>
-      <c r="D72">
+      <c r="D82">
         <v>5.8961538461538461E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="E82">
+        <v>56.431559233377605</v>
+      </c>
+      <c r="F82">
+        <v>17.476151415751058</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
+      <c r="B83">
         <v>12.388789797582586</v>
       </c>
-      <c r="C73">
+      <c r="C83">
         <v>0.76524788631772611</v>
       </c>
-      <c r="D73">
+      <c r="D83">
         <v>6.2375E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="E83">
+        <v>56.582627516480031</v>
+      </c>
+      <c r="F83">
+        <v>22.49718800848305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
+      <c r="B84">
         <v>10.700004736223905</v>
       </c>
-      <c r="C74">
+      <c r="C84">
         <v>1.6097793819335149</v>
       </c>
-      <c r="D74">
+      <c r="D84">
         <v>0.14977083333333333</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="E84">
+        <v>56.344014367792724</v>
+      </c>
+      <c r="F84">
+        <v>18.100498511265787</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
+      <c r="B85">
         <v>12.841797646005693</v>
       </c>
-      <c r="C75">
+      <c r="C85">
         <v>1.0033986235665242</v>
       </c>
-      <c r="D75">
+      <c r="D85">
         <v>7.8218939393939382E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="E85">
+        <v>56.380767167381975</v>
+      </c>
+      <c r="F85">
+        <v>19.922430955596486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
+      <c r="B86">
         <v>9.2152916221890742</v>
       </c>
-      <c r="C76">
+      <c r="C86">
         <v>1.1940723255765122</v>
       </c>
-      <c r="D76">
+      <c r="D86">
         <v>0.12964285714285714</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="E86">
+        <v>53.787157750282219</v>
+      </c>
+      <c r="F86">
+        <v>17.961797871282421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
+      <c r="B87">
         <v>16.119508609558565</v>
       </c>
-      <c r="C77">
+      <c r="C87">
         <v>1.4272249849528831</v>
       </c>
-      <c r="D77">
+      <c r="D87">
         <v>8.8512499999999994E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
+      <c r="B88">
         <v>11.110659442751803</v>
       </c>
-      <c r="C78">
+      <c r="C88">
         <v>1.2090417593612643</v>
       </c>
-      <c r="D78">
+      <c r="D88">
         <v>0.10881818181818183</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="E88">
+        <v>57.428410115197558</v>
+      </c>
+      <c r="F88">
+        <v>16.130004884312534</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
+      <c r="B89">
         <v>14.930460850124284</v>
       </c>
-      <c r="C79">
+      <c r="C89">
         <v>1.1195377850098611</v>
       </c>
-      <c r="D79">
+      <c r="D89">
         <v>7.500833333333333E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="E89">
+        <v>54.661351720175269</v>
+      </c>
+      <c r="F89">
+        <v>20.078281049717052</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
+      <c r="B90">
         <v>10.412207498460862</v>
       </c>
-      <c r="C80">
+      <c r="C90">
         <v>1.2138910364124511</v>
       </c>
-      <c r="D80">
+      <c r="D90">
         <v>0.11741666666666667</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="E90">
+        <v>56.532192483117058</v>
+      </c>
+      <c r="F90">
+        <v>16.929365808087983</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
+      <c r="B91">
         <v>10.680707056824719</v>
       </c>
-      <c r="C81">
+      <c r="C91">
         <v>1.3602190424210081</v>
       </c>
-      <c r="D81">
+      <c r="D91">
         <v>0.12740000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
+      <c r="B92">
         <v>8.6957281227480934</v>
       </c>
-      <c r="C82">
+      <c r="C92">
         <v>0.80754490449630412</v>
       </c>
-      <c r="D82">
+      <c r="D92">
         <v>9.2774999999999996E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="E92">
+        <v>54.262430321580858</v>
+      </c>
+      <c r="F92">
+        <v>16.586150326972795</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
+      <c r="B93">
         <v>9.5656383672625402</v>
       </c>
-      <c r="C83">
+      <c r="C93">
         <v>1.535367334371188</v>
       </c>
-      <c r="D83">
+      <c r="D93">
         <v>0.16024285714285713</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="E93">
+        <v>52.900508691876091</v>
+      </c>
+      <c r="F93">
+        <v>16.978581850872406</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
+      <c r="B94">
         <v>9.4842758685977504</v>
       </c>
-      <c r="C84">
+      <c r="C94">
         <v>1.1186689152416729</v>
       </c>
-      <c r="D84">
+      <c r="D94">
         <v>0.11855555555555555</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="E94">
+        <v>53.151414920984926</v>
+      </c>
+      <c r="F94">
+        <v>22.159247984483237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
+      <c r="B95">
         <v>9.6706102828759963</v>
       </c>
-      <c r="C85">
+      <c r="C95">
         <v>0.53635583540610954</v>
       </c>
-      <c r="D85">
+      <c r="D95">
         <v>5.7349999999999998E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="E95">
+        <v>53.250707709874654</v>
+      </c>
+      <c r="F95">
+        <v>20.450816094785473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
+      <c r="B96">
         <v>12.765988264056361</v>
       </c>
-      <c r="C86">
+      <c r="C96">
         <v>1.4490583992084223</v>
       </c>
-      <c r="D86">
+      <c r="D96">
         <v>0.11347142857142856</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="E96">
+        <v>52.186208854172143</v>
+      </c>
+      <c r="F96">
+        <v>20.71626263654257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
+      <c r="B97">
         <v>6.7352258496376072</v>
       </c>
-      <c r="C87">
+      <c r="C97">
         <v>0.76479388284306182</v>
       </c>
-      <c r="D87">
+      <c r="D97">
         <v>0.11325</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="E97">
+        <v>54.845286292654713</v>
+      </c>
+      <c r="F97">
+        <v>15.850413170060831</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>88</v>
       </c>
-      <c r="B88">
+      <c r="B98">
         <v>8.9623557906849385</v>
       </c>
-      <c r="C88">
+      <c r="C98">
         <v>1.3475262577794789</v>
       </c>
-      <c r="D88">
+      <c r="D98">
         <v>0.15037499999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="E98">
+        <v>53.69419941192195</v>
+      </c>
+      <c r="F98">
+        <v>16.654111907649092</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
+      <c r="B99">
         <v>9.5248156723595283</v>
       </c>
-      <c r="C89">
+      <c r="C99">
         <v>0.99313370139315937</v>
       </c>
-      <c r="D89">
+      <c r="D99">
         <v>0.10450000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="E99">
+        <v>56.783150560999729</v>
+      </c>
+      <c r="F99">
+        <v>20.905364322880938</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>90</v>
       </c>
-      <c r="B90">
+      <c r="B100">
         <v>10.098513382529184</v>
       </c>
-      <c r="C90">
+      <c r="C100">
         <v>1.0472252263368174</v>
       </c>
-      <c r="D90">
+      <c r="D100">
         <v>0.10377777777777777</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="E100">
+        <v>56.970755931579873</v>
+      </c>
+      <c r="F100">
+        <v>21.979889831882364</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
+      <c r="B101">
         <v>4.9293591901639573</v>
       </c>
-      <c r="C91">
+      <c r="C101">
         <v>0.63297550755804743</v>
       </c>
-      <c r="D91">
+      <c r="D101">
         <v>0.12835555555555556</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="E101">
+        <v>54.555928297922804</v>
+      </c>
+      <c r="F101">
+        <v>21.980373111096089</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>92</v>
       </c>
-      <c r="B92">
+      <c r="B102">
         <v>5.0156949248087024</v>
       </c>
-      <c r="C92">
+      <c r="C102">
         <v>0.50307251505378081</v>
       </c>
-      <c r="D92">
+      <c r="D102">
         <v>0.10229761904761905</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="E102">
+        <v>57.536730177137862</v>
+      </c>
+      <c r="F102">
+        <v>17.782726573437923</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
+      <c r="B103">
         <v>8.7169610839747271</v>
       </c>
-      <c r="C93">
+      <c r="C103">
         <v>0.92481491397195259</v>
       </c>
-      <c r="D93">
+      <c r="D103">
         <v>0.10505</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>94</v>
       </c>
-      <c r="B94">
+      <c r="B104">
         <v>5.5673033891950361</v>
       </c>
-      <c r="C94">
+      <c r="C104">
         <v>0.45471723389048824</v>
       </c>
-      <c r="D94">
+      <c r="D104">
         <v>8.1208333333333327E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="E104">
+        <v>54.797509600837891</v>
+      </c>
+      <c r="F104">
+        <v>13.727623302291295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>95</v>
       </c>
-      <c r="B95">
+      <c r="B105">
         <v>5.4073669107597304</v>
       </c>
-      <c r="C95">
+      <c r="C105">
         <v>0.61977210288376372</v>
       </c>
-      <c r="D95">
+      <c r="D105">
         <v>0.11474999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="E105">
+        <v>54.315509012148524</v>
+      </c>
+      <c r="F105">
+        <v>17.051315271060584</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>96</v>
       </c>
-      <c r="B96">
+      <c r="B106">
         <v>8.0242354387808277</v>
       </c>
-      <c r="C96">
+      <c r="C106">
         <v>0.90923064375480556</v>
       </c>
-      <c r="D96">
+      <c r="D106">
         <v>0.11278333333333333</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="E106">
+        <v>55.416106379799793</v>
+      </c>
+      <c r="F106">
+        <v>20.266511321389824</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>97</v>
       </c>
-      <c r="B97">
+      <c r="B107">
         <v>6.9462450257509367</v>
       </c>
-      <c r="C97">
+      <c r="C107">
         <v>0.89554308213583256</v>
       </c>
-      <c r="D97">
+      <c r="D107">
         <v>0.12869999999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="E107">
+        <v>53.21165110653525</v>
+      </c>
+      <c r="F107">
+        <v>19.838459060533825</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
+      <c r="B108">
         <v>9.4973726320614631</v>
       </c>
-      <c r="C98">
+      <c r="C108">
         <v>0.89844878578852838</v>
       </c>
-      <c r="D98">
+      <c r="D108">
         <v>9.4511904761904769E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="E108">
+        <v>51.576254715902579</v>
+      </c>
+      <c r="F108">
+        <v>20.287515150742628</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>99</v>
       </c>
-      <c r="B99">
+      <c r="B109">
         <v>5.0960716833091571</v>
       </c>
-      <c r="C99">
+      <c r="C109">
         <v>0.63589605742310473</v>
       </c>
-      <c r="D99">
+      <c r="D109">
         <v>0.12543333333333334</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="E109">
+        <v>53.488065781674834</v>
+      </c>
+      <c r="F109">
+        <v>18.926804725260414</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>100</v>
       </c>
-      <c r="B100">
+      <c r="B110">
         <v>6.5579640022700483</v>
       </c>
-      <c r="C100">
+      <c r="C110">
         <v>0.65653558651537502</v>
       </c>
-      <c r="D100">
+      <c r="D110">
         <v>0.10085714285714287</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="E110">
+        <v>53.26957845656105</v>
+      </c>
+      <c r="F110">
+        <v>18.861677191396502</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>101</v>
       </c>
-      <c r="B101">
+      <c r="B111">
         <v>4.491275446351402</v>
       </c>
-      <c r="C101">
+      <c r="C111">
         <v>0.41758567397208068</v>
       </c>
-      <c r="D101">
+      <c r="D111">
         <v>9.2916666666666675E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="E111">
+        <v>53.96324077729524</v>
+      </c>
+      <c r="F111">
+        <v>19.724984104703108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>102</v>
       </c>
-      <c r="B102">
+      <c r="B112">
         <v>10.483797186162914</v>
       </c>
-      <c r="C102">
+      <c r="C112">
         <v>0.96231830444781608</v>
       </c>
-      <c r="D102">
+      <c r="D112">
         <v>9.1783333333333342E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="E112">
+        <v>53.926050383494982</v>
+      </c>
+      <c r="F112">
+        <v>18.51989176927443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113">
+        <v>6.7548824870428517</v>
+      </c>
+      <c r="C113">
+        <v>0.63051872789115881</v>
+      </c>
+      <c r="D113">
+        <v>9.3262499999999998E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114">
+        <v>10.610498720417336</v>
+      </c>
+      <c r="C114">
+        <v>0.97585287324184344</v>
+      </c>
+      <c r="D114">
+        <v>9.2249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115">
+        <v>8.1591569839438112</v>
+      </c>
+      <c r="C115">
+        <v>1.0955509604306197</v>
+      </c>
+      <c r="D115">
+        <v>0.14116666666666666</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116">
+        <v>10.041530819260883</v>
+      </c>
+      <c r="C116">
+        <v>0.84668531132411484</v>
+      </c>
+      <c r="D116">
+        <v>8.4388888888888888E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117">
+        <v>6.4193077937705336</v>
+      </c>
+      <c r="C117">
+        <v>0.64206968299169243</v>
+      </c>
+      <c r="D117">
+        <v>9.9312499999999998E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118">
+        <v>3.8295907453662732</v>
+      </c>
+      <c r="C118">
+        <v>0.40630437230407002</v>
+      </c>
+      <c r="D118">
+        <v>0.10696666666666667</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119">
+        <v>5.0761866617756795</v>
+      </c>
+      <c r="C119">
+        <v>0.69852952110979438</v>
+      </c>
+      <c r="D119">
+        <v>0.13602083333333334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120">
+        <v>7.4344436429940197</v>
+      </c>
+      <c r="C120">
+        <v>0.74304274397452996</v>
+      </c>
+      <c r="D120">
+        <v>9.9971428571428572E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121">
+        <v>7.1975967458699674</v>
+      </c>
+      <c r="C121">
+        <v>0.76961648547631789</v>
+      </c>
+      <c r="D121">
+        <v>0.10685714285714287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122">
+        <v>7.9148868034148308</v>
+      </c>
+      <c r="C122">
+        <v>0.89293814570297392</v>
+      </c>
+      <c r="D122">
+        <v>0.11536250000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123">
+        <v>7.0220221405292262</v>
+      </c>
+      <c r="C123">
+        <v>1.3887451858635051</v>
+      </c>
+      <c r="D123">
+        <v>0.19793333333333332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>103</v>
       </c>
-      <c r="B103">
+      <c r="B124">
         <v>10.779108427557983</v>
       </c>
-      <c r="C103">
+      <c r="C124">
         <v>1.0365725359102829</v>
       </c>
-      <c r="D103">
+      <c r="D124">
         <v>9.6214285714285724E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="E124">
+        <v>53.54558013897767</v>
+      </c>
+      <c r="F124">
+        <v>22.17266562136485</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125">
+        <v>8.0604671660342042</v>
+      </c>
+      <c r="C125">
+        <v>0.71204110778668595</v>
+      </c>
+      <c r="D125">
+        <v>8.8333333333333347E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>104</v>
       </c>
-      <c r="B104">
+      <c r="B126">
         <v>9.3092340175434316</v>
       </c>
-      <c r="C104">
+      <c r="C126">
         <v>0.79702799883673792</v>
       </c>
-      <c r="D104">
+      <c r="D126">
         <v>8.5857142857142854E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="E126">
+        <v>51.358779252209963</v>
+      </c>
+      <c r="F126">
+        <v>19.557399273813218</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>105</v>
       </c>
-      <c r="B105">
+      <c r="B127">
         <v>9.321378053763933</v>
       </c>
-      <c r="C105">
+      <c r="C127">
         <v>1.3598548162656745</v>
       </c>
-      <c r="D105">
+      <c r="D127">
         <v>0.14586666666666667</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="E127">
+        <v>52.657354442803182</v>
+      </c>
+      <c r="F127">
+        <v>17.08028105850682</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>106</v>
       </c>
-      <c r="B106">
+      <c r="B128">
         <v>8.4734780437459385</v>
       </c>
-      <c r="C106">
+      <c r="C128">
         <v>1.0192411775778778</v>
       </c>
-      <c r="D106">
+      <c r="D128">
         <v>0.12775</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="E128">
+        <v>54.330028781579799</v>
+      </c>
+      <c r="F128">
+        <v>15.740423651832753</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>107</v>
       </c>
-      <c r="B107">
+      <c r="B129">
         <v>10.370726183158258</v>
       </c>
-      <c r="C107">
+      <c r="C129">
         <v>1.327864051201926</v>
       </c>
-      <c r="D107">
+      <c r="D129">
         <v>0.1207142857142857</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="E129">
+        <v>53.728393575505862</v>
+      </c>
+      <c r="F129">
+        <v>16.40313736720017</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>108</v>
       </c>
-      <c r="B108">
+      <c r="B130">
         <v>12.127967174015879</v>
       </c>
-      <c r="C108">
+      <c r="C130">
         <v>1.5254049689987321</v>
       </c>
-      <c r="D108">
+      <c r="D130">
         <v>0.12575</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="E130">
+        <v>56.630493636037791</v>
+      </c>
+      <c r="F130">
+        <v>16.610695477931909</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>109</v>
       </c>
-      <c r="B109">
+      <c r="B131">
         <v>9.7971330563832133</v>
       </c>
-      <c r="C109">
+      <c r="C131">
         <v>1.0675794884355883</v>
       </c>
-      <c r="D109">
+      <c r="D131">
         <v>0.10970833333333332</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="E131">
+        <v>52.538215473315539</v>
+      </c>
+      <c r="F131">
+        <v>17.307604853063761</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>110</v>
       </c>
-      <c r="B110">
+      <c r="B132">
         <v>7.9101359270252747</v>
       </c>
-      <c r="C110">
+      <c r="C132">
         <v>1.8495048938920313</v>
       </c>
-      <c r="D110">
+      <c r="D132">
         <v>0.23399999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="E132">
+        <v>58.309246276578961</v>
+      </c>
+      <c r="F132">
+        <v>12.924438792651276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>111</v>
       </c>
-      <c r="B111">
+      <c r="B133">
         <v>5.0600391110026184</v>
       </c>
-      <c r="C111">
+      <c r="C133">
         <v>1.2988491104685094</v>
       </c>
-      <c r="D111">
+      <c r="D133">
         <v>0.2583333333333333</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="E133">
+        <v>68.66579606050712</v>
+      </c>
+      <c r="F133">
+        <v>11.064463449312681</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>112</v>
       </c>
-      <c r="B112">
+      <c r="B134">
         <v>3.5461196452012143</v>
       </c>
-      <c r="C112">
+      <c r="C134">
         <v>0.83180457023854082</v>
       </c>
-      <c r="D112">
+      <c r="D134">
         <v>0.23449999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="E134">
+        <v>68.753267575197782</v>
+      </c>
+      <c r="F134">
+        <v>12.04863273323142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>113</v>
       </c>
-      <c r="B113">
+      <c r="B135">
         <v>6.4560618295720014</v>
       </c>
-      <c r="C113">
+      <c r="C135">
         <v>1.3704402106345528</v>
       </c>
-      <c r="D113">
+      <c r="D135">
         <v>0.21249999999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="E135">
+        <v>61.464171909469719</v>
+      </c>
+      <c r="F135">
+        <v>11.205590388609627</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>114</v>
       </c>
-      <c r="B114">
+      <c r="B136">
         <v>4.2108106696278371</v>
       </c>
-      <c r="C114">
+      <c r="C136">
         <v>0.88111213261962495</v>
       </c>
-      <c r="D114">
+      <c r="D136">
         <v>0.18812499999999999</v>
+      </c>
+      <c r="E136">
+        <v>66.959895339919697</v>
+      </c>
+      <c r="F136">
+        <v>12.192148828000576</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137" t="s">
+        <v>118</v>
+      </c>
+      <c r="D137" t="s">
+        <v>118</v>
+      </c>
+      <c r="E137">
+        <v>56.561863831712287</v>
+      </c>
+      <c r="F137">
+        <v>17.201530689233856</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" t="s">
+        <v>118</v>
+      </c>
+      <c r="C138" t="s">
+        <v>118</v>
+      </c>
+      <c r="D138" t="s">
+        <v>118</v>
+      </c>
+      <c r="E138">
+        <v>56.453911073764218</v>
+      </c>
+      <c r="F138">
+        <v>19.228393920775744</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" t="s">
+        <v>118</v>
+      </c>
+      <c r="C139" t="s">
+        <v>118</v>
+      </c>
+      <c r="D139" t="s">
+        <v>118</v>
+      </c>
+      <c r="E139">
+        <v>61.756700688739528</v>
+      </c>
+      <c r="F139">
+        <v>16.339050150831504</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" t="s">
+        <v>118</v>
+      </c>
+      <c r="E140">
+        <v>64.35322171866612</v>
+      </c>
+      <c r="F140">
+        <v>15.131498582621644</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" t="s">
+        <v>118</v>
+      </c>
+      <c r="D141" t="s">
+        <v>118</v>
+      </c>
+      <c r="E141">
+        <v>66.438144595267119</v>
+      </c>
+      <c r="F141">
+        <v>9.281145446100254</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142" t="s">
+        <v>118</v>
+      </c>
+      <c r="C142" t="s">
+        <v>118</v>
+      </c>
+      <c r="D142" t="s">
+        <v>118</v>
+      </c>
+      <c r="E142">
+        <v>71.702838063439131</v>
+      </c>
+      <c r="F142">
+        <v>5.8370799428637108</v>
       </c>
     </row>
   </sheetData>

--- a/data/yukon23eggT.xlsx
+++ b/data/yukon23eggT.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cody.pinger\Work\yukon_egg_thiamine\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3247C48D-940D-4343-9F48-5E084178E4ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA20E237-055E-4CFE-896A-A501E1E721D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13890" activeTab="1" xr2:uid="{E825F5E1-5EEC-41E9-9FE5-ACAE9BA8BD35}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13890" xr2:uid="{E825F5E1-5EEC-41E9-9FE5-ACAE9BA8BD35}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2 (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="N2_CO2_EA.wke" localSheetId="0">#REF!</definedName>
     <definedName name="N2_CO2_EA.wke">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="149">
   <si>
     <t>SIN</t>
   </si>
@@ -456,24 +454,6 @@
   </si>
   <si>
     <t>moisture</t>
-  </si>
-  <si>
-    <t>PIST 145</t>
-  </si>
-  <si>
-    <t>PIST 031</t>
-  </si>
-  <si>
-    <t>PIST 001</t>
-  </si>
-  <si>
-    <t>CHENA 02</t>
-  </si>
-  <si>
-    <t>CHENA 4</t>
-  </si>
-  <si>
-    <t>Salcha 229</t>
   </si>
   <si>
     <t>lipid</t>
@@ -510,18 +490,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -536,9 +510,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,11 +825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABECA71-E6FA-4B1F-A6A4-770EBADAACBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA58218A-9D83-47A5-99F1-DA4BE885C2D0}">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:XFD78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,2709 +857,7 @@
         <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2">
-        <v>9.3092340175434316</v>
-      </c>
-      <c r="C2">
-        <v>0.79702799883673792</v>
-      </c>
-      <c r="D2">
-        <v>8.5857142857142854E-2</v>
-      </c>
-      <c r="E2">
-        <v>51.358779252209963</v>
-      </c>
-      <c r="F2">
-        <v>19.557399273813218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3">
-        <v>9.4973726320614631</v>
-      </c>
-      <c r="C3">
-        <v>0.89844878578852838</v>
-      </c>
-      <c r="D3">
-        <v>9.4511904761904769E-2</v>
-      </c>
-      <c r="E3">
-        <v>51.576254715902579</v>
-      </c>
-      <c r="F3">
-        <v>20.287515150742628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4">
-        <v>12.765988264056361</v>
-      </c>
-      <c r="C4">
-        <v>1.4490583992084223</v>
-      </c>
-      <c r="D4">
-        <v>0.11347142857142856</v>
-      </c>
-      <c r="E4">
-        <v>52.186208854172143</v>
-      </c>
-      <c r="F4">
-        <v>20.71626263654257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5">
-        <v>9.7971330563832133</v>
-      </c>
-      <c r="C5">
-        <v>1.0675794884355883</v>
-      </c>
-      <c r="D5">
-        <v>0.10970833333333332</v>
-      </c>
-      <c r="E5">
-        <v>52.538215473315539</v>
-      </c>
-      <c r="F5">
-        <v>17.307604853063761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>14.444387235001791</v>
-      </c>
-      <c r="C6">
-        <v>1.4896811768812099</v>
-      </c>
-      <c r="D6">
-        <v>0.10425892857142857</v>
-      </c>
-      <c r="E6">
-        <v>52.574229158736209</v>
-      </c>
-      <c r="F6">
-        <v>23.656031017294069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7">
-        <v>9.321378053763933</v>
-      </c>
-      <c r="C7">
-        <v>1.3598548162656745</v>
-      </c>
-      <c r="D7">
-        <v>0.14586666666666667</v>
-      </c>
-      <c r="E7">
-        <v>52.657354442803182</v>
-      </c>
-      <c r="F7">
-        <v>17.08028105850682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <v>8.0919192415731889</v>
-      </c>
-      <c r="C8">
-        <v>0.90885933936182595</v>
-      </c>
-      <c r="D8">
-        <v>0.11153333333333333</v>
-      </c>
-      <c r="E8">
-        <v>52.711661964029155</v>
-      </c>
-      <c r="F8">
-        <v>18.723892723388769</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9">
-        <v>9.5656383672625402</v>
-      </c>
-      <c r="C9">
-        <v>1.535367334371188</v>
-      </c>
-      <c r="D9">
-        <v>0.16024285714285713</v>
-      </c>
-      <c r="E9">
-        <v>52.900508691876091</v>
-      </c>
-      <c r="F9">
-        <v>16.978581850872406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10">
-        <v>9.4842758685977504</v>
-      </c>
-      <c r="C10">
-        <v>1.1186689152416729</v>
-      </c>
-      <c r="D10">
-        <v>0.11855555555555555</v>
-      </c>
-      <c r="E10">
-        <v>53.151414920984926</v>
-      </c>
-      <c r="F10">
-        <v>22.159247984483237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11">
-        <v>6.9462450257509367</v>
-      </c>
-      <c r="C11">
-        <v>0.89554308213583256</v>
-      </c>
-      <c r="D11">
-        <v>0.12869999999999998</v>
-      </c>
-      <c r="E11">
-        <v>53.21165110653525</v>
-      </c>
-      <c r="F11">
-        <v>19.838459060533825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12">
-        <v>9.6706102828759963</v>
-      </c>
-      <c r="C12">
-        <v>0.53635583540610954</v>
-      </c>
-      <c r="D12">
-        <v>5.7349999999999998E-2</v>
-      </c>
-      <c r="E12">
-        <v>53.250707709874654</v>
-      </c>
-      <c r="F12">
-        <v>20.450816094785473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>6.5579640022700483</v>
-      </c>
-      <c r="C13">
-        <v>0.65653558651537502</v>
-      </c>
-      <c r="D13">
-        <v>0.10085714285714287</v>
-      </c>
-      <c r="E13">
-        <v>53.26957845656105</v>
-      </c>
-      <c r="F13">
-        <v>18.861677191396502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>8.7485461583945998</v>
-      </c>
-      <c r="C14">
-        <v>1.4284146977498788</v>
-      </c>
-      <c r="D14">
-        <v>0.158</v>
-      </c>
-      <c r="E14">
-        <v>53.2727288116943</v>
-      </c>
-      <c r="F14">
-        <v>17.740260968023431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>7.3322136933840598</v>
-      </c>
-      <c r="C15">
-        <v>0.82022765068661274</v>
-      </c>
-      <c r="D15">
-        <v>0.11401249999999999</v>
-      </c>
-      <c r="E15">
-        <v>53.29078143521474</v>
-      </c>
-      <c r="F15">
-        <v>22.526880921427853</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16">
-        <v>16.960423697318234</v>
-      </c>
-      <c r="C16">
-        <v>1.3438298996606854</v>
-      </c>
-      <c r="D16">
-        <v>7.9049999999999995E-2</v>
-      </c>
-      <c r="E16">
-        <v>53.408460144737788</v>
-      </c>
-      <c r="F16">
-        <v>23.715476405435485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17">
-        <v>5.0960716833091571</v>
-      </c>
-      <c r="C17">
-        <v>0.63589605742310473</v>
-      </c>
-      <c r="D17">
-        <v>0.12543333333333334</v>
-      </c>
-      <c r="E17">
-        <v>53.488065781674834</v>
-      </c>
-      <c r="F17">
-        <v>18.926804725260414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18">
-        <v>10.779108427557983</v>
-      </c>
-      <c r="C18">
-        <v>1.0365725359102829</v>
-      </c>
-      <c r="D18">
-        <v>9.6214285714285724E-2</v>
-      </c>
-      <c r="E18">
-        <v>53.54558013897767</v>
-      </c>
-      <c r="F18">
-        <v>22.17266562136485</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19">
-        <v>8.9623557906849385</v>
-      </c>
-      <c r="C19">
-        <v>1.3475262577794789</v>
-      </c>
-      <c r="D19">
-        <v>0.15037499999999998</v>
-      </c>
-      <c r="E19">
-        <v>53.69419941192195</v>
-      </c>
-      <c r="F19">
-        <v>16.654111907649092</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20">
-        <v>10.370726183158258</v>
-      </c>
-      <c r="C20">
-        <v>1.327864051201926</v>
-      </c>
-      <c r="D20">
-        <v>0.1207142857142857</v>
-      </c>
-      <c r="E20">
-        <v>53.728393575505862</v>
-      </c>
-      <c r="F20">
-        <v>16.40313736720017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>5.2513534655235468</v>
-      </c>
-      <c r="C21">
-        <v>0.82526175790682388</v>
-      </c>
-      <c r="D21">
-        <v>0.15716666666666668</v>
-      </c>
-      <c r="E21">
-        <v>53.770320558856163</v>
-      </c>
-      <c r="F21">
-        <v>17.42111091468804</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>6.8381544499823068</v>
-      </c>
-      <c r="C22">
-        <v>0.9617505057073531</v>
-      </c>
-      <c r="D22">
-        <v>0.14250000000000002</v>
-      </c>
-      <c r="E22">
-        <v>53.773835989604521</v>
-      </c>
-      <c r="F22">
-        <v>17.096378762886179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23">
-        <v>9.2152916221890742</v>
-      </c>
-      <c r="C23">
-        <v>1.1940723255765122</v>
-      </c>
-      <c r="D23">
-        <v>0.12964285714285714</v>
-      </c>
-      <c r="E23">
-        <v>53.787157750282219</v>
-      </c>
-      <c r="F23">
-        <v>17.961797871282421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24">
-        <v>10.483797186162914</v>
-      </c>
-      <c r="C24">
-        <v>0.96231830444781608</v>
-      </c>
-      <c r="D24">
-        <v>9.1783333333333342E-2</v>
-      </c>
-      <c r="E24">
-        <v>53.926050383494982</v>
-      </c>
-      <c r="F24">
-        <v>18.51989176927443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25">
-        <v>4.491275446351402</v>
-      </c>
-      <c r="C25">
-        <v>0.41758567397208068</v>
-      </c>
-      <c r="D25">
-        <v>9.2916666666666675E-2</v>
-      </c>
-      <c r="E25">
-        <v>53.96324077729524</v>
-      </c>
-      <c r="F25">
-        <v>19.724984104703108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26">
-        <v>16.444914268532337</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>54.007226993289223</v>
-      </c>
-      <c r="F26">
-        <v>21.138139712571064</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27">
-        <v>13.772560240084065</v>
-      </c>
-      <c r="C27">
-        <v>1.0490829650993865</v>
-      </c>
-      <c r="D27">
-        <v>7.6242307692307693E-2</v>
-      </c>
-      <c r="E27">
-        <v>54.155715330422623</v>
-      </c>
-      <c r="F27">
-        <v>21.491308383482284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>4.9594424566705939</v>
-      </c>
-      <c r="C28">
-        <v>0.82740445093502213</v>
-      </c>
-      <c r="D28">
-        <v>0.16728571428571429</v>
-      </c>
-      <c r="E28">
-        <v>54.261674303427974</v>
-      </c>
-      <c r="F28">
-        <v>15.857587584105298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29">
-        <v>8.6957281227480934</v>
-      </c>
-      <c r="C29">
-        <v>0.80754490449630412</v>
-      </c>
-      <c r="D29">
-        <v>9.2774999999999996E-2</v>
-      </c>
-      <c r="E29">
-        <v>54.262430321580858</v>
-      </c>
-      <c r="F29">
-        <v>16.586150326972795</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30">
-        <v>8.2427622085796273</v>
-      </c>
-      <c r="C30">
-        <v>0.64637713981615741</v>
-      </c>
-      <c r="D30">
-        <v>7.9250000000000001E-2</v>
-      </c>
-      <c r="E30">
-        <v>54.278605398255173</v>
-      </c>
-      <c r="F30">
-        <v>20.116037451013778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31">
-        <v>5.4073669107597304</v>
-      </c>
-      <c r="C31">
-        <v>0.61977210288376372</v>
-      </c>
-      <c r="D31">
-        <v>0.11474999999999999</v>
-      </c>
-      <c r="E31">
-        <v>54.315509012148524</v>
-      </c>
-      <c r="F31">
-        <v>17.051315271060584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32">
-        <v>8.4734780437459385</v>
-      </c>
-      <c r="C32">
-        <v>1.0192411775778778</v>
-      </c>
-      <c r="D32">
-        <v>0.12775</v>
-      </c>
-      <c r="E32">
-        <v>54.330028781579799</v>
-      </c>
-      <c r="F32">
-        <v>15.740423651832753</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33">
-        <v>14.011647091105587</v>
-      </c>
-      <c r="C33">
-        <v>1.0719799424334187</v>
-      </c>
-      <c r="D33">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="E33">
-        <v>54.468780260638816</v>
-      </c>
-      <c r="F33">
-        <v>19.354596304868483</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34">
-        <v>4.9293591901639573</v>
-      </c>
-      <c r="C34">
-        <v>0.63297550755804743</v>
-      </c>
-      <c r="D34">
-        <v>0.12835555555555556</v>
-      </c>
-      <c r="E34">
-        <v>54.555928297922804</v>
-      </c>
-      <c r="F34">
-        <v>21.980373111096089</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>8.9261451113254395</v>
-      </c>
-      <c r="C35">
-        <v>0.85435168859560706</v>
-      </c>
-      <c r="D35">
-        <v>9.5649999999999985E-2</v>
-      </c>
-      <c r="E35">
-        <v>54.608372173499312</v>
-      </c>
-      <c r="F35">
-        <v>20.109621451307884</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36">
-        <v>8.8367510210296807</v>
-      </c>
-      <c r="C36">
-        <v>1.0418331447347282</v>
-      </c>
-      <c r="D36">
-        <v>0.12129999999999999</v>
-      </c>
-      <c r="E36">
-        <v>54.631994838116618</v>
-      </c>
-      <c r="F36">
-        <v>17.525989697446523</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37">
-        <v>14.930460850124284</v>
-      </c>
-      <c r="C37">
-        <v>1.1195377850098611</v>
-      </c>
-      <c r="D37">
-        <v>7.500833333333333E-2</v>
-      </c>
-      <c r="E37">
-        <v>54.661351720175269</v>
-      </c>
-      <c r="F37">
-        <v>20.078281049717052</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38">
-        <v>18.123977666574213</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>54.76242224775153</v>
-      </c>
-      <c r="F38">
-        <v>15.763705667718064</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39">
-        <v>5.5673033891950361</v>
-      </c>
-      <c r="C39">
-        <v>0.45471723389048824</v>
-      </c>
-      <c r="D39">
-        <v>8.1208333333333327E-2</v>
-      </c>
-      <c r="E39">
-        <v>54.797509600837891</v>
-      </c>
-      <c r="F39">
-        <v>13.727623302291295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40">
-        <v>12.199937821088646</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>54.822217824394734</v>
-      </c>
-      <c r="F40">
-        <v>25.146940568980934</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41">
-        <v>6.7352258496376072</v>
-      </c>
-      <c r="C41">
-        <v>0.76479388284306182</v>
-      </c>
-      <c r="D41">
-        <v>0.11325</v>
-      </c>
-      <c r="E41">
-        <v>54.845286292654713</v>
-      </c>
-      <c r="F41">
-        <v>15.850413170060831</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42">
-        <v>19.917836478343201</v>
-      </c>
-      <c r="C42">
-        <v>0.81340340434432035</v>
-      </c>
-      <c r="D42">
-        <v>4.0843749999999998E-2</v>
-      </c>
-      <c r="E42">
-        <v>55.361077882012225</v>
-      </c>
-      <c r="F42">
-        <v>19.045653121309698</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43">
-        <v>9.1326596474305006</v>
-      </c>
-      <c r="C43">
-        <v>1.5351703602810094</v>
-      </c>
-      <c r="D43">
-        <v>0.16893333333333332</v>
-      </c>
-      <c r="E43">
-        <v>55.395873355721434</v>
-      </c>
-      <c r="F43">
-        <v>19.568837866210004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44">
-        <v>8.0242354387808277</v>
-      </c>
-      <c r="C44">
-        <v>0.90923064375480556</v>
-      </c>
-      <c r="D44">
-        <v>0.11278333333333333</v>
-      </c>
-      <c r="E44">
-        <v>55.416106379799793</v>
-      </c>
-      <c r="F44">
-        <v>20.266511321389824</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45">
-        <v>15.3190230102221</v>
-      </c>
-      <c r="C45">
-        <v>0.91974776556432847</v>
-      </c>
-      <c r="D45">
-        <v>5.9849206349206346E-2</v>
-      </c>
-      <c r="E45">
-        <v>55.487203135808151</v>
-      </c>
-      <c r="F45">
-        <v>21.184351170105426</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46">
-        <v>5.7942414868214938</v>
-      </c>
-      <c r="C46">
-        <v>0.84384377790814369</v>
-      </c>
-      <c r="D46">
-        <v>0.14560000000000001</v>
-      </c>
-      <c r="E46">
-        <v>55.516444937176644</v>
-      </c>
-      <c r="F46">
-        <v>20.696862444791059</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47">
-        <v>9.1631395719128612</v>
-      </c>
-      <c r="C47">
-        <v>0.42269988687312621</v>
-      </c>
-      <c r="D47">
-        <v>4.5682539682539686E-2</v>
-      </c>
-      <c r="E47">
-        <v>55.569304711178056</v>
-      </c>
-      <c r="F47">
-        <v>23.380748318557337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>8.1139548602214866</v>
-      </c>
-      <c r="C48">
-        <v>0.62651589163369537</v>
-      </c>
-      <c r="D48">
-        <v>7.7709090909090908E-2</v>
-      </c>
-      <c r="E48">
-        <v>55.676095938090455</v>
-      </c>
-      <c r="F48">
-        <v>18.997027645055812</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49">
-        <v>9.895914239027622</v>
-      </c>
-      <c r="C49">
-        <v>0.46349044312924659</v>
-      </c>
-      <c r="D49">
-        <v>4.6842222222222216E-2</v>
-      </c>
-      <c r="E49">
-        <v>55.807560744937554</v>
-      </c>
-      <c r="F49">
-        <v>18.554706019380397</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>11.250591921135268</v>
-      </c>
-      <c r="C50">
-        <v>0.84609992215044727</v>
-      </c>
-      <c r="D50">
-        <v>7.511515151515151E-2</v>
-      </c>
-      <c r="E50">
-        <v>55.833500449032613</v>
-      </c>
-      <c r="F50">
-        <v>20.114192528644772</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51">
-        <v>18.045822106452725</v>
-      </c>
-      <c r="C51">
-        <v>1.0781166854915032</v>
-      </c>
-      <c r="D51">
-        <v>5.9972222222222225E-2</v>
-      </c>
-      <c r="E51">
-        <v>55.945560510761794</v>
-      </c>
-      <c r="F51">
-        <v>15.973378786574086</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52">
-        <v>7.4951259264672361</v>
-      </c>
-      <c r="C52">
-        <v>1.1377601156377266</v>
-      </c>
-      <c r="D52">
-        <v>0.15179999999999999</v>
-      </c>
-      <c r="E52">
-        <v>56.255728200865363</v>
-      </c>
-      <c r="F52">
-        <v>18.493197682851633</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53">
-        <v>15.87122425318989</v>
-      </c>
-      <c r="C53">
-        <v>0.75966448541094966</v>
-      </c>
-      <c r="D53">
-        <v>4.7760416666666666E-2</v>
-      </c>
-      <c r="E53">
-        <v>56.289738996030472</v>
-      </c>
-      <c r="F53">
-        <v>17.514931473201148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54">
-        <v>7.9887408522131658</v>
-      </c>
-      <c r="C54">
-        <v>0.46266161936238781</v>
-      </c>
-      <c r="D54">
-        <v>5.8528846153846154E-2</v>
-      </c>
-      <c r="E54">
-        <v>56.300585431395774</v>
-      </c>
-      <c r="F54">
-        <v>19.424389519677433</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55">
-        <v>9.1364195266609656</v>
-      </c>
-      <c r="C55">
-        <v>0.6030057146073744</v>
-      </c>
-      <c r="D55">
-        <v>6.5484162895927595E-2</v>
-      </c>
-      <c r="E55">
-        <v>56.317658926951673</v>
-      </c>
-      <c r="F55">
-        <v>17.496749749893326</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56">
-        <v>10.700004736223905</v>
-      </c>
-      <c r="C56">
-        <v>1.6097793819335149</v>
-      </c>
-      <c r="D56">
-        <v>0.14977083333333333</v>
-      </c>
-      <c r="E56">
-        <v>56.344014367792724</v>
-      </c>
-      <c r="F56">
-        <v>18.100498511265787</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57">
-        <v>9.1201577780291814</v>
-      </c>
-      <c r="C57">
-        <v>0.8569171502096109</v>
-      </c>
-      <c r="D57">
-        <v>9.35E-2</v>
-      </c>
-      <c r="E57">
-        <v>56.380596450348776</v>
-      </c>
-      <c r="F57">
-        <v>16.761596593643311</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58">
-        <v>12.841797646005693</v>
-      </c>
-      <c r="C58">
-        <v>1.0033986235665242</v>
-      </c>
-      <c r="D58">
-        <v>7.8218939393939382E-2</v>
-      </c>
-      <c r="E58">
-        <v>56.380767167381975</v>
-      </c>
-      <c r="F58">
-        <v>19.922430955596486</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59">
-        <v>14.106369397647935</v>
-      </c>
-      <c r="C59">
-        <v>1.5935342177769354</v>
-      </c>
-      <c r="D59">
-        <v>0.11168888888888889</v>
-      </c>
-      <c r="E59">
-        <v>56.400456511930344</v>
-      </c>
-      <c r="F59">
-        <v>20.617306178114667</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60">
-        <v>13.181769369076905</v>
-      </c>
-      <c r="C60">
-        <v>1.200442129870932</v>
-      </c>
-      <c r="D60">
-        <v>9.0791666666666659E-2</v>
-      </c>
-      <c r="E60">
-        <v>56.406195652978312</v>
-      </c>
-      <c r="F60">
-        <v>19.89862690450127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61">
-        <v>12.199351812905096</v>
-      </c>
-      <c r="C61">
-        <v>0.71754374499718887</v>
-      </c>
-      <c r="D61">
-        <v>5.8961538461538461E-2</v>
-      </c>
-      <c r="E61">
-        <v>56.431559233377605</v>
-      </c>
-      <c r="F61">
-        <v>17.476151415751058</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>143</v>
-      </c>
-      <c r="B62" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" t="s">
-        <v>118</v>
-      </c>
-      <c r="D62" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62">
-        <v>56.453911073764218</v>
-      </c>
-      <c r="F62">
-        <v>19.228393920775744</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>16.57051119558411</v>
-      </c>
-      <c r="C63">
-        <v>1.049679772284053</v>
-      </c>
-      <c r="D63">
-        <v>6.3323232323232309E-2</v>
-      </c>
-      <c r="E63">
-        <v>56.470996718300235</v>
-      </c>
-      <c r="F63">
-        <v>20.480801659766694</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64">
-        <v>10.412207498460862</v>
-      </c>
-      <c r="C64">
-        <v>1.2138910364124511</v>
-      </c>
-      <c r="D64">
-        <v>0.11741666666666667</v>
-      </c>
-      <c r="E64">
-        <v>56.532192483117058</v>
-      </c>
-      <c r="F64">
-        <v>16.929365808087983</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
         <v>142</v>
-      </c>
-      <c r="B65" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" t="s">
-        <v>118</v>
-      </c>
-      <c r="E65">
-        <v>56.561863831712287</v>
-      </c>
-      <c r="F65">
-        <v>17.201530689233856</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66">
-        <v>12.388789797582586</v>
-      </c>
-      <c r="C66">
-        <v>0.76524788631772611</v>
-      </c>
-      <c r="D66">
-        <v>6.2375E-2</v>
-      </c>
-      <c r="E66">
-        <v>56.582627516480031</v>
-      </c>
-      <c r="F66">
-        <v>22.49718800848305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67">
-        <v>12.127967174015879</v>
-      </c>
-      <c r="C67">
-        <v>1.5254049689987321</v>
-      </c>
-      <c r="D67">
-        <v>0.12575</v>
-      </c>
-      <c r="E67">
-        <v>56.630493636037791</v>
-      </c>
-      <c r="F67">
-        <v>16.610695477931909</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68">
-        <v>14.151100919268313</v>
-      </c>
-      <c r="C68">
-        <v>0.70950051245199153</v>
-      </c>
-      <c r="D68">
-        <v>5.0633333333333336E-2</v>
-      </c>
-      <c r="E68">
-        <v>56.64649970936658</v>
-      </c>
-      <c r="F68">
-        <v>22.302430103959598</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69">
-        <v>12.042872497414574</v>
-      </c>
-      <c r="C69">
-        <v>1.6854753008194925</v>
-      </c>
-      <c r="D69">
-        <v>0.1401</v>
-      </c>
-      <c r="E69">
-        <v>56.657290526403301</v>
-      </c>
-      <c r="F69">
-        <v>18.459128973397</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70">
-        <v>12.852737897299004</v>
-      </c>
-      <c r="C70">
-        <v>0.84765853302069416</v>
-      </c>
-      <c r="D70">
-        <v>6.5958333333333341E-2</v>
-      </c>
-      <c r="E70">
-        <v>56.722559593945455</v>
-      </c>
-      <c r="F70">
-        <v>19.167761854684411</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71">
-        <v>9.5248156723595283</v>
-      </c>
-      <c r="C71">
-        <v>0.99313370139315937</v>
-      </c>
-      <c r="D71">
-        <v>0.10450000000000001</v>
-      </c>
-      <c r="E71">
-        <v>56.783150560999729</v>
-      </c>
-      <c r="F71">
-        <v>20.905364322880938</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72">
-        <v>7.0273284127658968</v>
-      </c>
-      <c r="C72">
-        <v>0.80821954601524593</v>
-      </c>
-      <c r="D72">
-        <v>0.1152</v>
-      </c>
-      <c r="E72">
-        <v>56.906434759822474</v>
-      </c>
-      <c r="F72">
-        <v>16.642870979568251</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73">
-        <v>9.4239199684443058</v>
-      </c>
-      <c r="C73">
-        <v>0.95831189669132211</v>
-      </c>
-      <c r="D73">
-        <v>0.10237500000000001</v>
-      </c>
-      <c r="E73">
-        <v>56.950454064836407</v>
-      </c>
-      <c r="F73">
-        <v>17.06061983827324</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74">
-        <v>10.098513382529184</v>
-      </c>
-      <c r="C74">
-        <v>1.0472252263368174</v>
-      </c>
-      <c r="D74">
-        <v>0.10377777777777777</v>
-      </c>
-      <c r="E74">
-        <v>56.970755931579873</v>
-      </c>
-      <c r="F74">
-        <v>21.979889831882364</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75">
-        <v>5.7846883584906497</v>
-      </c>
-      <c r="C75">
-        <v>0.73220308189750372</v>
-      </c>
-      <c r="D75">
-        <v>0.12670000000000001</v>
-      </c>
-      <c r="E75">
-        <v>56.980460521537047</v>
-      </c>
-      <c r="F75">
-        <v>14.245368340667399</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>57</v>
-      </c>
-      <c r="B76">
-        <v>10.88874935847862</v>
-      </c>
-      <c r="C76">
-        <v>0.9820710916123373</v>
-      </c>
-      <c r="D76">
-        <v>9.0410714285714289E-2</v>
-      </c>
-      <c r="E76">
-        <v>57.012942036607107</v>
-      </c>
-      <c r="F76">
-        <v>21.080211393659265</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>65</v>
-      </c>
-      <c r="B77">
-        <v>14.025839239381433</v>
-      </c>
-      <c r="C77">
-        <v>0.62672642539701606</v>
-      </c>
-      <c r="D77">
-        <v>4.4549999999999999E-2</v>
-      </c>
-      <c r="E77">
-        <v>57.030790770250192</v>
-      </c>
-      <c r="F77">
-        <v>21.791103782946141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="1">
-        <v>11.736793261235235</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.88915784676531695</v>
-      </c>
-      <c r="D78" s="1">
-        <v>7.5750000000000012E-2</v>
-      </c>
-      <c r="E78" s="1">
-        <v>57.090398264984245</v>
-      </c>
-      <c r="F78" s="1">
-        <v>17.817881964919394</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79">
-        <v>10.488095214396978</v>
-      </c>
-      <c r="C79">
-        <v>0.9648863285155751</v>
-      </c>
-      <c r="D79">
-        <v>9.1883333333333345E-2</v>
-      </c>
-      <c r="E79">
-        <v>57.259971622260764</v>
-      </c>
-      <c r="F79">
-        <v>18.514845266021148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80">
-        <v>12.967786642006306</v>
-      </c>
-      <c r="C80">
-        <v>0.85171237940195643</v>
-      </c>
-      <c r="D80">
-        <v>6.5683333333333344E-2</v>
-      </c>
-      <c r="E80">
-        <v>57.298153677411491</v>
-      </c>
-      <c r="F80">
-        <v>19.957146473590246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81">
-        <v>11.110659442751803</v>
-      </c>
-      <c r="C81">
-        <v>1.2090417593612643</v>
-      </c>
-      <c r="D81">
-        <v>0.10881818181818183</v>
-      </c>
-      <c r="E81">
-        <v>57.428410115197558</v>
-      </c>
-      <c r="F81">
-        <v>16.130004884312534</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82">
-        <v>8.3246952190465269</v>
-      </c>
-      <c r="C82">
-        <v>0.55730954383983988</v>
-      </c>
-      <c r="D82">
-        <v>6.7133333333333337E-2</v>
-      </c>
-      <c r="E82">
-        <v>57.488108285220385</v>
-      </c>
-      <c r="F82">
-        <v>21.095956756733749</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83">
-        <v>5.0156949248087024</v>
-      </c>
-      <c r="C83">
-        <v>0.50307251505378081</v>
-      </c>
-      <c r="D83">
-        <v>0.10229761904761905</v>
-      </c>
-      <c r="E83">
-        <v>57.536730177137862</v>
-      </c>
-      <c r="F83">
-        <v>17.782726573437923</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84">
-        <v>6.294732214139847</v>
-      </c>
-      <c r="C84">
-        <v>0.98973033306666269</v>
-      </c>
-      <c r="D84">
-        <v>0.15725</v>
-      </c>
-      <c r="E84">
-        <v>57.717990527214845</v>
-      </c>
-      <c r="F84">
-        <v>15.698266544978276</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85">
-        <v>15.209197204033034</v>
-      </c>
-      <c r="C85">
-        <v>1.1775481990417076</v>
-      </c>
-      <c r="D85">
-        <v>7.7613636363636357E-2</v>
-      </c>
-      <c r="E85">
-        <v>57.841250009080134</v>
-      </c>
-      <c r="F85">
-        <v>17.832017605731696</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86">
-        <v>5.5673469731246321</v>
-      </c>
-      <c r="C86">
-        <v>0.85642801296805326</v>
-      </c>
-      <c r="D86">
-        <v>0.15426666666666666</v>
-      </c>
-      <c r="E86">
-        <v>57.991067519047199</v>
-      </c>
-      <c r="F86">
-        <v>16.069271235804596</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87">
-        <v>10.520622272186191</v>
-      </c>
-      <c r="C87">
-        <v>0.40256955020833507</v>
-      </c>
-      <c r="D87">
-        <v>3.8410714285714284E-2</v>
-      </c>
-      <c r="E87">
-        <v>58.020595693627705</v>
-      </c>
-      <c r="F87">
-        <v>20.589848590749448</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88">
-        <v>4.9510356218815215</v>
-      </c>
-      <c r="C88">
-        <v>0.87805799671435691</v>
-      </c>
-      <c r="D88">
-        <v>0.17649999999999999</v>
-      </c>
-      <c r="E88">
-        <v>58.059656523049128</v>
-      </c>
-      <c r="F88">
-        <v>24.843657251340069</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B89">
-        <v>13.059862171811071</v>
-      </c>
-      <c r="C89">
-        <v>0.47702718324834625</v>
-      </c>
-      <c r="D89">
-        <v>3.6592857142857149E-2</v>
-      </c>
-      <c r="E89">
-        <v>58.140127888274293</v>
-      </c>
-      <c r="F89">
-        <v>21.038094564105954</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90">
-        <v>5.4132955578041795</v>
-      </c>
-      <c r="C90">
-        <v>0.80009773243661453</v>
-      </c>
-      <c r="D90">
-        <v>0.14800000000000002</v>
-      </c>
-      <c r="E90">
-        <v>58.272168220591169</v>
-      </c>
-      <c r="F90">
-        <v>12.564556042857705</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91">
-        <v>7.9101359270252747</v>
-      </c>
-      <c r="C91">
-        <v>1.8495048938920313</v>
-      </c>
-      <c r="D91">
-        <v>0.23399999999999999</v>
-      </c>
-      <c r="E91">
-        <v>58.309246276578961</v>
-      </c>
-      <c r="F91">
-        <v>12.924438792651276</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>12</v>
-      </c>
-      <c r="B92">
-        <v>5.0077907026926898</v>
-      </c>
-      <c r="C92">
-        <v>0.9262060803949097</v>
-      </c>
-      <c r="D92">
-        <v>0.18496666666666667</v>
-      </c>
-      <c r="E92">
-        <v>58.330324718075055</v>
-      </c>
-      <c r="F92">
-        <v>11.391865844148363</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>17</v>
-      </c>
-      <c r="B93">
-        <v>5.8136322168481227</v>
-      </c>
-      <c r="C93">
-        <v>0.80716627443325761</v>
-      </c>
-      <c r="D93">
-        <v>0.138875</v>
-      </c>
-      <c r="E93">
-        <v>58.426161395465456</v>
-      </c>
-      <c r="F93">
-        <v>14.737370655311341</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>38</v>
-      </c>
-      <c r="B94">
-        <v>11.850257336810611</v>
-      </c>
-      <c r="C94">
-        <v>0.8087261656843423</v>
-      </c>
-      <c r="D94">
-        <v>6.831818181818182E-2</v>
-      </c>
-      <c r="E94">
-        <v>58.445301608751052</v>
-      </c>
-      <c r="F94">
-        <v>18.702493180710476</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95">
-        <v>3.9544750484211608</v>
-      </c>
-      <c r="C95">
-        <v>0.78882707378730088</v>
-      </c>
-      <c r="D95">
-        <v>0.19949999999999998</v>
-      </c>
-      <c r="E95">
-        <v>58.621444569811878</v>
-      </c>
-      <c r="F95">
-        <v>14.164813026114173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96">
-        <v>5.0805654094961934</v>
-      </c>
-      <c r="C96">
-        <v>0.94540550950718316</v>
-      </c>
-      <c r="D96">
-        <v>0.186</v>
-      </c>
-      <c r="E96">
-        <v>58.62591871070574</v>
-      </c>
-      <c r="F96">
-        <v>13.924413053888991</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>16</v>
-      </c>
-      <c r="B97">
-        <v>6.4366002158585136</v>
-      </c>
-      <c r="C97">
-        <v>1.4335107352122169</v>
-      </c>
-      <c r="D97">
-        <v>0.22275</v>
-      </c>
-      <c r="E97">
-        <v>59.029332490496145</v>
-      </c>
-      <c r="F97">
-        <v>13.386028381481513</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98">
-        <v>6.8909282534356198</v>
-      </c>
-      <c r="C98">
-        <v>1.5427710320161228</v>
-      </c>
-      <c r="D98">
-        <v>0.22416666666666665</v>
-      </c>
-      <c r="E98">
-        <v>59.08223143040636</v>
-      </c>
-      <c r="F98">
-        <v>12.48311331907024</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B99" s="1">
-        <v>13.103461928005833</v>
-      </c>
-      <c r="C99" s="1">
-        <v>1.0109281323543353</v>
-      </c>
-      <c r="D99" s="1">
-        <v>7.7979166666666669E-2</v>
-      </c>
-      <c r="E99" s="1">
-        <v>59.33339454595535</v>
-      </c>
-      <c r="F99" s="1">
-        <v>18.575753494851032</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100">
-        <v>4.8116657734707537</v>
-      </c>
-      <c r="C100">
-        <v>0.67283065118461916</v>
-      </c>
-      <c r="D100">
-        <v>0.13983333333333334</v>
-      </c>
-      <c r="E100">
-        <v>59.865985235661554</v>
-      </c>
-      <c r="F100">
-        <v>12.336082717843052</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>18</v>
-      </c>
-      <c r="B101">
-        <v>3.9981577386966638</v>
-      </c>
-      <c r="C101">
-        <v>0.63501614438465193</v>
-      </c>
-      <c r="D101">
-        <v>0.15883333333333333</v>
-      </c>
-      <c r="E101">
-        <v>59.914211576141632</v>
-      </c>
-      <c r="F101">
-        <v>11.233768605691132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102">
-        <v>7.1873666798913831</v>
-      </c>
-      <c r="C102">
-        <v>1.6419285233017287</v>
-      </c>
-      <c r="D102">
-        <v>0.22833333333333333</v>
-      </c>
-      <c r="E102">
-        <v>60.550564284133657</v>
-      </c>
-      <c r="F102">
-        <v>9.0264054843143988</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103">
-        <v>5.3009710616617305</v>
-      </c>
-      <c r="C103">
-        <v>1.7626555659624552</v>
-      </c>
-      <c r="D103">
-        <v>0.33366666666666667</v>
-      </c>
-      <c r="E103">
-        <v>61.014809419762081</v>
-      </c>
-      <c r="F103">
-        <v>13.154195901804314</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104">
-        <v>6.4560618295720014</v>
-      </c>
-      <c r="C104">
-        <v>1.3704402106345528</v>
-      </c>
-      <c r="D104">
-        <v>0.21249999999999999</v>
-      </c>
-      <c r="E104">
-        <v>61.464171909469719</v>
-      </c>
-      <c r="F104">
-        <v>11.205590388609627</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>43</v>
-      </c>
-      <c r="B105">
-        <v>14.926790527233905</v>
-      </c>
-      <c r="C105">
-        <v>1.1144174293222344</v>
-      </c>
-      <c r="D105">
-        <v>7.514285714285715E-2</v>
-      </c>
-      <c r="E105">
-        <v>61.593679972653717</v>
-      </c>
-      <c r="F105">
-        <v>15.662177455640315</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>144</v>
-      </c>
-      <c r="B106" t="s">
-        <v>118</v>
-      </c>
-      <c r="C106" t="s">
-        <v>118</v>
-      </c>
-      <c r="D106" t="s">
-        <v>118</v>
-      </c>
-      <c r="E106">
-        <v>61.756700688739528</v>
-      </c>
-      <c r="F106">
-        <v>16.339050150831504</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>145</v>
-      </c>
-      <c r="B107" t="s">
-        <v>118</v>
-      </c>
-      <c r="C107" t="s">
-        <v>118</v>
-      </c>
-      <c r="D107" t="s">
-        <v>118</v>
-      </c>
-      <c r="E107">
-        <v>64.35322171866612</v>
-      </c>
-      <c r="F107">
-        <v>15.131498582621644</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>35</v>
-      </c>
-      <c r="B108">
-        <v>9.742702066453532</v>
-      </c>
-      <c r="C108">
-        <v>0.7288746481606011</v>
-      </c>
-      <c r="D108">
-        <v>7.5226190476190474E-2</v>
-      </c>
-      <c r="E108">
-        <v>64.922114422725755</v>
-      </c>
-      <c r="F108">
-        <v>15.184667123426191</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>146</v>
-      </c>
-      <c r="B109" t="s">
-        <v>118</v>
-      </c>
-      <c r="C109" t="s">
-        <v>118</v>
-      </c>
-      <c r="D109" t="s">
-        <v>118</v>
-      </c>
-      <c r="E109">
-        <v>66.438144595267119</v>
-      </c>
-      <c r="F109">
-        <v>9.281145446100254</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110">
-        <v>4.2108106696278371</v>
-      </c>
-      <c r="C110">
-        <v>0.88111213261962495</v>
-      </c>
-      <c r="D110">
-        <v>0.18812499999999999</v>
-      </c>
-      <c r="E110">
-        <v>66.959895339919697</v>
-      </c>
-      <c r="F110">
-        <v>12.192148828000576</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111">
-        <v>5.0600391110026184</v>
-      </c>
-      <c r="C111">
-        <v>1.2988491104685094</v>
-      </c>
-      <c r="D111">
-        <v>0.2583333333333333</v>
-      </c>
-      <c r="E111">
-        <v>68.66579606050712</v>
-      </c>
-      <c r="F111">
-        <v>11.064463449312681</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112">
-        <v>3.5461196452012143</v>
-      </c>
-      <c r="C112">
-        <v>0.83180457023854082</v>
-      </c>
-      <c r="D112">
-        <v>0.23449999999999999</v>
-      </c>
-      <c r="E112">
-        <v>68.753267575197782</v>
-      </c>
-      <c r="F112">
-        <v>12.04863273323142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113">
-        <v>3.2106455097456599</v>
-      </c>
-      <c r="C113">
-        <v>0.7202548093529425</v>
-      </c>
-      <c r="D113">
-        <v>0.20716666666666667</v>
-      </c>
-      <c r="E113">
-        <v>69.963167587476974</v>
-      </c>
-      <c r="F113">
-        <v>11.657816836437949</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>147</v>
-      </c>
-      <c r="B114" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" t="s">
-        <v>118</v>
-      </c>
-      <c r="D114" t="s">
-        <v>118</v>
-      </c>
-      <c r="E114">
-        <v>71.702838063439131</v>
-      </c>
-      <c r="F114">
-        <v>5.8370799428637108</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115">
-        <v>2.7317140650316665</v>
-      </c>
-      <c r="C115" t="s">
-        <v>118</v>
-      </c>
-      <c r="D115" t="s">
-        <v>118</v>
-      </c>
-      <c r="E115">
-        <v>85.325000000000003</v>
-      </c>
-      <c r="F115">
-        <v>1.3429719760611649</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116">
-        <v>6.0177634368769173</v>
-      </c>
-      <c r="C116">
-        <v>0.66638493252779374</v>
-      </c>
-      <c r="D116">
-        <v>0.11115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117">
-        <v>6.3412768574908984</v>
-      </c>
-      <c r="C117">
-        <v>0.84690266441943307</v>
-      </c>
-      <c r="D117">
-        <v>0.13355</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118">
-        <v>3.6957559945541636</v>
-      </c>
-      <c r="C118">
-        <v>0.76614040545721174</v>
-      </c>
-      <c r="D118">
-        <v>0.20874999999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119">
-        <v>3.6957559945541636</v>
-      </c>
-      <c r="C119">
-        <v>0.76614040545721174</v>
-      </c>
-      <c r="D119">
-        <v>0.20874999999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120">
-        <v>5.3322011006116981</v>
-      </c>
-      <c r="C120">
-        <v>0.90152653212248168</v>
-      </c>
-      <c r="D120">
-        <v>0.16912500000000003</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121">
-        <v>5.4161042854846269</v>
-      </c>
-      <c r="C121">
-        <v>0.55723356527629642</v>
-      </c>
-      <c r="D121">
-        <v>0.10292857142857142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>125</v>
-      </c>
-      <c r="B122">
-        <v>4.7538938672855657</v>
-      </c>
-      <c r="C122">
-        <v>0.48293327577856537</v>
-      </c>
-      <c r="D122">
-        <v>0.10163194444444446</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123">
-        <v>4.7836606433009363</v>
-      </c>
-      <c r="C123">
-        <v>0.62899063892424967</v>
-      </c>
-      <c r="D123">
-        <v>0.13150000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124">
-        <v>6.8766972805530591</v>
-      </c>
-      <c r="C124">
-        <v>0.94499851881947983</v>
-      </c>
-      <c r="D124">
-        <v>0.13779999999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125">
-        <v>4.8121582918741366</v>
-      </c>
-      <c r="C125">
-        <v>0.51577614906446789</v>
-      </c>
-      <c r="D125">
-        <v>0.10714285714285715</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>30</v>
-      </c>
-      <c r="B126">
-        <v>7.1720698768188242</v>
-      </c>
-      <c r="C126">
-        <v>0.43078350882548472</v>
-      </c>
-      <c r="D126">
-        <v>6.0395833333333336E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>31</v>
-      </c>
-      <c r="B127">
-        <v>9.1264624134192722</v>
-      </c>
-      <c r="C127">
-        <v>0.41854844678855141</v>
-      </c>
-      <c r="D127">
-        <v>4.5949999999999998E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>77</v>
-      </c>
-      <c r="B128">
-        <v>16.119508609558565</v>
-      </c>
-      <c r="C128">
-        <v>1.4272249849528831</v>
-      </c>
-      <c r="D128">
-        <v>8.8512499999999994E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>81</v>
-      </c>
-      <c r="B129">
-        <v>10.680707056824719</v>
-      </c>
-      <c r="C129">
-        <v>1.3602190424210081</v>
-      </c>
-      <c r="D129">
-        <v>0.12740000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>93</v>
-      </c>
-      <c r="B130">
-        <v>8.7169610839747271</v>
-      </c>
-      <c r="C130">
-        <v>0.92481491397195259</v>
-      </c>
-      <c r="D130">
-        <v>0.10505</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>6.7548824870428517</v>
-      </c>
-      <c r="C131">
-        <v>0.63051872789115881</v>
-      </c>
-      <c r="D131">
-        <v>9.3262499999999998E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>10.610498720417336</v>
-      </c>
-      <c r="C132">
-        <v>0.97585287324184344</v>
-      </c>
-      <c r="D132">
-        <v>9.2249999999999999E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>8.1591569839438112</v>
-      </c>
-      <c r="C133">
-        <v>1.0955509604306197</v>
-      </c>
-      <c r="D133">
-        <v>0.14116666666666666</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>10.041530819260883</v>
-      </c>
-      <c r="C134">
-        <v>0.84668531132411484</v>
-      </c>
-      <c r="D134">
-        <v>8.4388888888888888E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>6.4193077937705336</v>
-      </c>
-      <c r="C135">
-        <v>0.64206968299169243</v>
-      </c>
-      <c r="D135">
-        <v>9.9312499999999998E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>3.8295907453662732</v>
-      </c>
-      <c r="C136">
-        <v>0.40630437230407002</v>
-      </c>
-      <c r="D136">
-        <v>0.10696666666666667</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>5.0761866617756795</v>
-      </c>
-      <c r="C137">
-        <v>0.69852952110979438</v>
-      </c>
-      <c r="D137">
-        <v>0.13602083333333334</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>7.4344436429940197</v>
-      </c>
-      <c r="C138">
-        <v>0.74304274397452996</v>
-      </c>
-      <c r="D138">
-        <v>9.9971428571428572E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>7.1975967458699674</v>
-      </c>
-      <c r="C139">
-        <v>0.76961648547631789</v>
-      </c>
-      <c r="D139">
-        <v>0.10685714285714287</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>7.9148868034148308</v>
-      </c>
-      <c r="C140">
-        <v>0.89293814570297392</v>
-      </c>
-      <c r="D140">
-        <v>0.11536250000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>7.0220221405292262</v>
-      </c>
-      <c r="C141">
-        <v>1.3887451858635051</v>
-      </c>
-      <c r="D141">
-        <v>0.19793333333333332</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>8.0604671660342042</v>
-      </c>
-      <c r="C142">
-        <v>0.71204110778668595</v>
-      </c>
-      <c r="D142">
-        <v>8.8333333333333347E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:F142">
-    <sortCondition ref="E2:E142"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA58218A-9D83-47A5-99F1-DA4BE885C2D0}">
-  <dimension ref="A1:F142"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3962,6 +1233,12 @@
       <c r="D20">
         <v>0.11115</v>
       </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3976,6 +1253,12 @@
       <c r="D21">
         <v>0.13355</v>
       </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4050,6 +1333,12 @@
       <c r="D25">
         <v>0.20874999999999999</v>
       </c>
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4064,6 +1353,12 @@
       <c r="D26">
         <v>0.20874999999999999</v>
       </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4078,6 +1373,12 @@
       <c r="D27">
         <v>0.16912500000000003</v>
       </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4092,6 +1393,12 @@
       <c r="D28">
         <v>0.10292857142857142</v>
       </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4106,6 +1413,12 @@
       <c r="D29">
         <v>0.10163194444444446</v>
       </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4120,6 +1433,12 @@
       <c r="D30">
         <v>0.13150000000000001</v>
       </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -4134,6 +1453,12 @@
       <c r="D31">
         <v>0.13779999999999998</v>
       </c>
+      <c r="E31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4148,6 +1473,12 @@
       <c r="D32">
         <v>0.10714285714285715</v>
       </c>
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5230,6 +2561,12 @@
       <c r="D87">
         <v>8.8512499999999994E-2</v>
       </c>
+      <c r="E87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F87" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -5304,6 +2641,12 @@
       <c r="D91">
         <v>0.12740000000000001</v>
       </c>
+      <c r="E91" t="s">
+        <v>118</v>
+      </c>
+      <c r="F91" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -5538,6 +2881,12 @@
       <c r="D103">
         <v>0.10505</v>
       </c>
+      <c r="E103" t="s">
+        <v>118</v>
+      </c>
+      <c r="F103" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -5732,6 +3081,12 @@
       <c r="D113">
         <v>9.3262499999999998E-2</v>
       </c>
+      <c r="E113" t="s">
+        <v>118</v>
+      </c>
+      <c r="F113" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -5746,6 +3101,12 @@
       <c r="D114">
         <v>9.2249999999999999E-2</v>
       </c>
+      <c r="E114" t="s">
+        <v>118</v>
+      </c>
+      <c r="F114" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -5760,6 +3121,12 @@
       <c r="D115">
         <v>0.14116666666666666</v>
       </c>
+      <c r="E115" t="s">
+        <v>118</v>
+      </c>
+      <c r="F115" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -5774,6 +3141,12 @@
       <c r="D116">
         <v>8.4388888888888888E-2</v>
       </c>
+      <c r="E116" t="s">
+        <v>118</v>
+      </c>
+      <c r="F116" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -5788,6 +3161,12 @@
       <c r="D117">
         <v>9.9312499999999998E-2</v>
       </c>
+      <c r="E117" t="s">
+        <v>118</v>
+      </c>
+      <c r="F117" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -5802,6 +3181,12 @@
       <c r="D118">
         <v>0.10696666666666667</v>
       </c>
+      <c r="E118" t="s">
+        <v>118</v>
+      </c>
+      <c r="F118" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -5816,6 +3201,12 @@
       <c r="D119">
         <v>0.13602083333333334</v>
       </c>
+      <c r="E119" t="s">
+        <v>118</v>
+      </c>
+      <c r="F119" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -5830,6 +3221,12 @@
       <c r="D120">
         <v>9.9971428571428572E-2</v>
       </c>
+      <c r="E120" t="s">
+        <v>118</v>
+      </c>
+      <c r="F120" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -5844,6 +3241,12 @@
       <c r="D121">
         <v>0.10685714285714287</v>
       </c>
+      <c r="E121" t="s">
+        <v>118</v>
+      </c>
+      <c r="F121" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -5858,6 +3261,12 @@
       <c r="D122">
         <v>0.11536250000000001</v>
       </c>
+      <c r="E122" t="s">
+        <v>118</v>
+      </c>
+      <c r="F122" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -5872,6 +3281,12 @@
       <c r="D123">
         <v>0.19793333333333332</v>
       </c>
+      <c r="E123" t="s">
+        <v>118</v>
+      </c>
+      <c r="F123" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -5906,6 +3321,12 @@
       <c r="D125">
         <v>8.8333333333333347E-2</v>
       </c>
+      <c r="E125" t="s">
+        <v>118</v>
+      </c>
+      <c r="F125" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -6129,7 +3550,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B137" t="s">
         <v>118</v>
@@ -6149,7 +3570,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B138" t="s">
         <v>118</v>
@@ -6169,7 +3590,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B139" t="s">
         <v>118</v>
@@ -6189,7 +3610,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B140" t="s">
         <v>118</v>
@@ -6209,7 +3630,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B141" t="s">
         <v>118</v>
@@ -6229,7 +3650,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B142" t="s">
         <v>118</v>
